--- a/專題/merge.xlsx
+++ b/專題/merge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,7 +484,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20,244.21</t>
+          <t>16,732.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -493,14 +493,14 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>7.73</v>
+        <v>125.4</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.04</v>
+        <v>-0.74</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17,688.21</t>
+          <t>14,630.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -527,14 +527,14 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8.93</v>
+        <v>98.87</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.05</v>
+        <v>-0.67</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10,287.04</t>
+          <t>8,368.04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -561,14 +561,14 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>20.36</v>
+        <v>50.19</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2</v>
+        <v>-0.6</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13,862.98</t>
+          <t>11,197.60</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -595,14 +595,14 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>35.85</v>
+        <v>63.59</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.26</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -620,23 +620,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13,107.42</t>
+          <t>10,662.44</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>17.09</v>
+        <v>58.46</v>
       </c>
       <c r="G6" t="n">
-        <v>0.13</v>
+        <v>-0.55</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -654,23 +654,23 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>14,540.26</t>
+          <t>12,850.24</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>44.71</v>
+        <v>122.66</v>
       </c>
       <c r="G7" t="n">
-        <v>0.31</v>
+        <v>-0.95</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24,239.45</t>
+          <t>19,108.30</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -697,14 +697,14 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>156.25</v>
+        <v>204.56</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.64</v>
+        <v>-1.06</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -722,23 +722,23 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11,198.26</t>
+          <t>9,629.53</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>122.88</v>
+        <v>15.12</v>
       </c>
       <c r="G9" t="n">
-        <v>1.11</v>
+        <v>-0.16</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -756,23 +756,23 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7,729.16</t>
+          <t>5,911.93</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>60.43</v>
+        <v>64.43000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.79</v>
+        <v>-1.08</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -790,23 +790,23 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10,277.48</t>
+          <t>9,015.97</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>16.9</v>
+        <v>56.65</v>
       </c>
       <c r="G11" t="n">
-        <v>0.16</v>
+        <v>-0.62</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -824,23 +824,23 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9,459.24</t>
+          <t>8,037.23</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>41.02</v>
+        <v>25.5</v>
       </c>
       <c r="G12" t="n">
-        <v>0.44</v>
+        <v>-0.32</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>15,395.17</t>
+          <t>12,559.06</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -867,14 +867,14 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>17.16</v>
+        <v>110.72</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.11</v>
+        <v>-0.87</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>19,658.99</t>
+          <t>17,203.46</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -901,14 +901,14 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>144.52</v>
+        <v>3.11</v>
       </c>
       <c r="G14" t="n">
-        <v>0.74</v>
+        <v>0.02</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -926,23 +926,23 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>16,679.36</t>
+          <t>14,294.88</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>143.93</v>
+        <v>46.55</v>
       </c>
       <c r="G15" t="n">
-        <v>0.87</v>
+        <v>-0.32</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>9,310.68</t>
+          <t>8,177.73</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -969,14 +969,14 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>16.64</v>
+        <v>87.59</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.18</v>
+        <v>-1.06</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>711.59</t>
+          <t>609.18</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1003,14 +1003,14 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>10.24</v>
+        <v>1.33</v>
       </c>
       <c r="G17" t="n">
-        <v>1.46</v>
+        <v>0.22</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1028,23 +1028,23 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>932.05</t>
+          <t>829.14</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.53</v>
+        <v>4.1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.38</v>
+        <v>-0.49</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4,718.49</t>
+          <t>3,796.95</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1071,14 +1071,14 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>24.25</v>
+        <v>42.93</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.51</v>
+        <v>-1.12</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1096,23 +1096,23 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>181.27</t>
+          <t>152.92</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.62</v>
+        <v>0.39</v>
       </c>
       <c r="G20" t="n">
-        <v>1.47</v>
+        <v>-0.25</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1130,23 +1130,23 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1,858.54</t>
+          <t>1,795.83</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.88</v>
+        <v>10.24</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.32</v>
+        <v>0.57</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1164,23 +1164,23 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>282.71</t>
+          <t>244.26</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.3</v>
+        <v>1.11</v>
       </c>
       <c r="G22" t="n">
-        <v>0.46</v>
+        <v>-0.45</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>628.80</t>
+          <t>584.66</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1207,14 +1207,14 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.55</v>
+        <v>0.5</v>
       </c>
       <c r="G23" t="n">
-        <v>0.41</v>
+        <v>0.09</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1232,23 +1232,23 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>231.02</t>
+          <t>227.79</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.02</v>
+        <v>1.35</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01</v>
+        <v>-0.59</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1266,23 +1266,23 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>80.01</t>
+          <t>105.77</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.19</v>
+        <v>1.84</v>
       </c>
       <c r="G25" t="n">
-        <v>0.24</v>
+        <v>-1.71</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1300,7 +1300,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>116.13</t>
+          <t>115.74</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1309,14 +1309,14 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.28</v>
+        <v>0.55</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.24</v>
+        <v>-0.47</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>139.71</t>
+          <t>127.82</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1343,14 +1343,14 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.01</v>
+        <v>1.11</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.01</v>
+        <v>-0.86</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>65.42</t>
+          <t>71.39</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1377,14 +1377,14 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.35</v>
+        <v>0.08</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.53</v>
+        <v>-0.11</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>68.63</t>
+          <t>63.81</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1411,14 +1411,14 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.95</v>
+        <v>1.65</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4</v>
+        <v>2.65</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>401.50</t>
+          <t>296.99</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1445,14 +1445,14 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.05</v>
+        <v>0.98</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.51</v>
+        <v>-0.33</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>165.93</t>
+          <t>136.80</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1479,14 +1479,14 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.38</v>
+        <v>0.55</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.23</v>
+        <v>-0.4</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1504,23 +1504,23 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>284.73</t>
+          <t>233.93</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.21</v>
+        <v>1.96</v>
       </c>
       <c r="G32" t="n">
-        <v>1.14</v>
+        <v>-0.83</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1538,23 +1538,23 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>331.92</t>
+          <t>340.93</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.32</v>
+        <v>3.07</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7</v>
+        <v>-0.89</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>848.49</t>
+          <t>677.26</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1581,14 +1581,14 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.49</v>
+        <v>7.72</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.53</v>
+        <v>-1.13</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>428.29</t>
+          <t>319.90</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1615,14 +1615,14 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.99</v>
+        <v>3.14</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.92</v>
+        <v>-0.97</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1640,23 +1640,23 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>141.16</t>
+          <t>122.61</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="G36" t="n">
-        <v>0.11</v>
+        <v>-1.2</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1674,23 +1674,23 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>41.17</t>
+          <t>33.66</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.43</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G37" t="n">
-        <v>1.06</v>
+        <v>-1.64</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1708,23 +1708,23 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>131.14</t>
+          <t>125.79</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.27</v>
+        <v>0.01</v>
       </c>
       <c r="G38" t="n">
-        <v>0.21</v>
+        <v>-0.01</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>190.76</t>
+          <t>162.96</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1751,14 +1751,14 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.19</v>
+        <v>4.84</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.62</v>
+        <v>-2.88</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1776,23 +1776,23 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>178.07</t>
+          <t>170.00</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.52</v>
+        <v>1.7</v>
       </c>
       <c r="G40" t="n">
-        <v>0.86</v>
+        <v>-0.99</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1810,23 +1810,23 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>127.28</t>
+          <t>121.20</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.06</v>
+        <v>0.97</v>
       </c>
       <c r="G41" t="n">
-        <v>0.05</v>
+        <v>-0.79</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1844,23 +1844,23 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>99.77</t>
+          <t>96.91</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G42" t="n">
-        <v>1.01</v>
+        <v>-0.72</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1878,23 +1878,23 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>367.02</t>
+          <t>349.74</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1912,23 +1912,23 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>266.92</t>
+          <t>156.06</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>11.65</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>4.56</v>
+        <v>-0.44</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>95.11</t>
+          <t>115.30</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1955,14 +1955,14 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.58</v>
+        <v>1.3</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.61</v>
+        <v>-1.11</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1,665.15</t>
+          <t>1,530.55</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1989,14 +1989,14 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>7.19</v>
+        <v>12.15</v>
       </c>
       <c r="G46" t="n">
-        <v>0.43</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>372.56</t>
+          <t>282.28</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2023,14 +2023,14 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.08</v>
+        <v>5.73</v>
       </c>
       <c r="G47" t="n">
-        <v>0.02</v>
+        <v>2.07</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2048,23 +2048,23 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>126.06</t>
+          <t>108.11</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.01</v>
+        <v>1.13</v>
       </c>
       <c r="G48" t="n">
-        <v>0.01</v>
+        <v>-1.03</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2082,23 +2082,23 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>384.73</t>
+          <t>356.03</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="G49" t="n">
-        <v>0.29</v>
+        <v>-0.53</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>40,698.12</t>
+          <t>26,796.43</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2125,14 +2125,14 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>41.11</v>
+        <v>364.65</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.1</v>
+        <v>-1.34</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4,023.05</t>
+          <t>4,683.25</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2159,14 +2159,14 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2.03</v>
+        <v>31.23</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05</v>
+        <v>0.67</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>41,886.84</t>
+          <t>25,232.94</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2193,14 +2193,14 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>445.67</v>
+        <v>581.89</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.05</v>
+        <v>-2.25</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3,580.50</t>
+          <t>4,242.81</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2227,14 +2227,14 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>18.75</v>
+        <v>47.29</v>
       </c>
       <c r="G53" t="n">
-        <v>0.53</v>
+        <v>1.13</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2252,7 +2252,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4,478.56</t>
+          <t>4,486.20</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2261,10 +2261,10 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>23.18</v>
+        <v>5.67</v>
       </c>
       <c r="G54" t="n">
-        <v>0.52</v>
+        <v>0.13</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2286,19 +2286,19 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>8,353.78</t>
+          <t>6,704.38</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2.61</v>
+        <v>76.95</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03</v>
+        <v>-1.13</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>7,942.46</t>
+          <t>4,792.28</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2329,10 +2329,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>22.04</v>
+        <v>76.98999999999999</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.28</v>
+        <v>-1.58</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2354,19 +2354,19 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4,063.42</t>
+          <t>3,421.01</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>9.25</v>
+        <v>4.68</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.23</v>
+        <v>0.14</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2383,24 +2383,24 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>臺灣企業社會責任中小型指數</t>
+          <t>臺灣5G指數</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>8,668.52</t>
+          <t>7,358.83</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>21.96</v>
+        <v>103.98</v>
       </c>
       <c r="G58" t="n">
-        <v>0.25</v>
+        <v>-1.39</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2417,24 +2417,24 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>臺灣5G+通訊指數</t>
+          <t>臺灣企業社會責任中小型指數</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>7,042.59</t>
+          <t>7,868.80</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>9.6</v>
+        <v>46.59</v>
       </c>
       <c r="G59" t="n">
-        <v>0.14</v>
+        <v>-0.59</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2451,12 +2451,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>臺灣全市場指數</t>
+          <t>特選臺灣電動車代表指數</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>6,045.15</t>
+          <t>5,614.52</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2465,10 +2465,10 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1.6</v>
+        <v>95.34</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.03</v>
+        <v>-1.67</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2485,12 +2485,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>臺灣全市場半導體指數</t>
+          <t>臺灣5G+通訊指數</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>6,774.24</t>
+          <t>5,491.99</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2499,10 +2499,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>22.73</v>
+        <v>73.61</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.33</v>
+        <v>-1.32</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2519,24 +2519,24 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>臺灣電動車與自駕科技永續概念指數</t>
+          <t>臺灣全市場指數</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>5,232.73</t>
+          <t>4,958.55</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>5.32</v>
+        <v>37.71</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1</v>
+        <v>-0.75</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2553,12 +2553,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>特選小資高價30指數</t>
+          <t>臺灣全市場半導體指數</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>5,702.60</t>
+          <t>4,614.59</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>19.72</v>
+        <v>75.63</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.34</v>
+        <v>-1.61</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2587,24 +2587,24 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>特選臺灣綠能及電動車指數</t>
+          <t>臺灣電動車與自駕科技永續概念指數</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>5,004.77</t>
+          <t>4,066.52</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>21.32</v>
+        <v>61.81</v>
       </c>
       <c r="G64" t="n">
-        <v>0.43</v>
+        <v>-1.5</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2621,24 +2621,24 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>特選臺灣智能車供應鏈聯盟指數</t>
+          <t>臺灣智慧移動與電動車指數</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>5,072.07</t>
+          <t>3,821.34</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.39</v>
+        <v>89.13</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01</v>
+        <v>-2.28</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2655,12 +2655,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>臺灣全市場半導體精選30指數</t>
+          <t>特選小資高價30指數</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>5,394.52</t>
+          <t>4,404.45</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2669,10 +2669,10 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>18.65</v>
+        <v>60.94</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.34</v>
+        <v>-1.36</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2689,24 +2689,24 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>特選臺灣高股息30指數</t>
+          <t>特選臺灣綠能及電動車指數</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5,289.03</t>
+          <t>4,278.61</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>25.36</v>
+        <v>48.72</v>
       </c>
       <c r="G67" t="n">
-        <v>0.48</v>
+        <v>-1.13</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2723,24 +2723,24 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>臺灣友善環境指數</t>
+          <t>特選臺灣智能車供應鏈聯盟指數</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>5,464.08</t>
+          <t>4,116.67</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>33.92</v>
+        <v>57.68</v>
       </c>
       <c r="G68" t="n">
-        <v>0.62</v>
+        <v>-1.38</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -2750,53 +2750,53 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>金融類日報酬兩倍指數</t>
+          <t>臺灣全市場半導體精選30指數</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>31,637.14</t>
+          <t>3,650.93</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>272.04</v>
+        <v>60.08</v>
       </c>
       <c r="G69" t="n">
-        <v>0.87</v>
+        <v>-1.62</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>價格指數(臺灣指數公司)</t>
+          <t>價格指數(跨市場)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>金融類日報酬反向一倍指數</t>
+          <t>特選臺灣高股息30指數</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>4,734.32</t>
+          <t>3,720.16</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2805,168 +2805,168 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>20.62</v>
+        <v>45.69</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.43</v>
+        <v>-1.21</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>價格指數(臺灣指數公司)</t>
+          <t>價格指數(跨市場)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B71" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>漲升股利150指數</t>
+          <t>臺灣友善環境指數</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>9,115.38</t>
+          <t>4,405.02</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>4.9</v>
+        <v>33.48</v>
       </c>
       <c r="G71" t="n">
-        <v>0.05</v>
+        <v>-0.75</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>價格指數(臺灣指數公司)</t>
+          <t>價格指數(跨市場)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B72" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>漲升股利100指數</t>
+          <t>台灣永續價值指數</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>7,797.12</t>
+          <t>4,147.88</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>5.39</v>
+        <v>17.43</v>
       </c>
       <c r="G72" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.42</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>價格指數(臺灣指數公司)</t>
+          <t>價格指數(跨市場)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B73" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>藍籌30指數</t>
+          <t>特選臺灣IC設計指數</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>8,755.02</t>
+          <t>2,687.43</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>13.11</v>
+        <v>59.25</v>
       </c>
       <c r="G73" t="n">
-        <v>0.15</v>
+        <v>-2.16</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>價格指數(臺灣指數公司)</t>
+          <t>價格指數(跨市場)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B74" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>工業菁英30指數</t>
+          <t>特選臺灣環境永續高股息指數</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>9,913.08</t>
+          <t>3,939.32</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>5.26</v>
+        <v>49.81</v>
       </c>
       <c r="G74" t="n">
-        <v>0.05</v>
+        <v>-1.25</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>價格指數(臺灣指數公司)</t>
+          <t>價格指數(跨市場)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B75" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>電子菁英30指數</t>
+          <t>臺灣友善環境50指數</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>9,113.56</t>
+          <t>3,845.90</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2975,66 +2975,66 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>13.39</v>
+        <v>28.68</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.15</v>
+        <v>-0.74</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>價格指數(臺灣指數公司)</t>
+          <t>價格指數(跨市場)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B76" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>低波動股利精選30指數</t>
+          <t>特選台灣策略高股息30指數</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>7,145.22</t>
+          <t>3,606.50</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>11.46</v>
+        <v>42.89</v>
       </c>
       <c r="G76" t="n">
-        <v>0.16</v>
+        <v>-1.18</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>價格指數(臺灣指數公司)</t>
+          <t>價格指數(跨市場)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B77" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>低貝塔100指數</t>
+          <t>特選臺灣IC設計產業代表指數</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>7,392.99</t>
+          <t>3,206.18</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3043,66 +3043,66 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2.91</v>
+        <v>62.69</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.04</v>
+        <v>-1.92</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>價格指數(臺灣指數公司)</t>
+          <t>價格指數(跨市場)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B78" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>中小型精選50指數</t>
+          <t>特選臺灣綠能指數</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>7,687.82</t>
+          <t>4,672.27</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>48.96</v>
+        <v>84.78</v>
       </c>
       <c r="G78" t="n">
-        <v>0.64</v>
+        <v>-1.78</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>價格指數(臺灣指數公司)</t>
+          <t>價格指數(跨市場)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B79" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>中小型A級動能50指數</t>
+          <t>特選臺灣成長高股息指數</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>16,061.96</t>
+          <t>3,776.02</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3111,202 +3111,202 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>201.7</v>
+        <v>44.49</v>
       </c>
       <c r="G79" t="n">
-        <v>-1.24</v>
+        <v>-1.16</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>價格指數(臺灣指數公司)</t>
+          <t>價格指數(跨市場)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B80" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>特選高息低波指數</t>
+          <t>特選臺灣智慧50指數</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>7,369.15</t>
+          <t>3,659.05</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>21.36</v>
+        <v>42.04</v>
       </c>
       <c r="G80" t="n">
-        <v>0.29</v>
+        <v>-1.14</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>價格指數(臺灣指數公司)</t>
+          <t>價格指數(跨市場)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B81" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>臺灣永續指數</t>
+          <t>特選臺灣標竿PCB指數</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>8,964.73</t>
+          <t>3,827.08</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>11.89</v>
+        <v>193.17</v>
       </c>
       <c r="G81" t="n">
-        <v>0.13</v>
+        <v>-4.8</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>價格指數(臺灣指數公司)</t>
+          <t>價格指數(跨市場)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B82" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>特選內需高收益指數</t>
+          <t>臺灣晶圓製造指數</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>6,085.08</t>
+          <t>4,215.89</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>17.92</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="G82" t="n">
-        <v>0.3</v>
+        <v>-1.63</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>價格指數(臺灣指數公司)</t>
+          <t>價格指數(跨市場)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B83" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>價值投資指數</t>
+          <t>臺灣精選高息指數</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>8,454.03</t>
+          <t>3,680.99</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>89.09</v>
+        <v>39.22</v>
       </c>
       <c r="G83" t="n">
-        <v>1.07</v>
+        <v>-1.05</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>價格指數(臺灣指數公司)</t>
+          <t>價格指數(跨市場)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B84" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>中小型300指數</t>
+          <t>臺灣多因子優選高股息30指數</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>9,365.04</t>
+          <t>4,711.17</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>15.98</v>
+        <v>32.96</v>
       </c>
       <c r="G84" t="n">
-        <v>0.17</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>價格指數(臺灣指數公司)</t>
+          <t>價格指數(跨市場)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B85" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>臺灣勞工權益指數</t>
+          <t>特選臺灣優利高填息30指數</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>7,961.66</t>
+          <t>4,327.36</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3315,32 +3315,32 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.71</v>
+        <v>37.16</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.01</v>
+        <v>-0.85</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>價格指數(臺灣指數公司)</t>
+          <t>價格指數(跨市場)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B86" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>智慧投資多因子30指數</t>
+          <t>臺灣多因子優選成長30指數</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>6,070.02</t>
+          <t>5,214.71</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3349,44 +3349,44 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>16.87</v>
+        <v>39.15</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.28</v>
+        <v>-0.75</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>價格指數(臺灣指數公司)</t>
+          <t>價格指數(跨市場)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>臺股期貨指數</t>
+          <t>金融類日報酬兩倍指數</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>8,736.94</t>
+          <t>25,885.17</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>6.42</v>
+        <v>407.73</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.07000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -3396,19 +3396,19 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B88" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>臺灣上櫃永續指數</t>
+          <t>金融類日報酬反向一倍指數</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>7,050.48</t>
+          <t>4,988.50</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3417,10 +3417,10 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>38.78</v>
+        <v>40.24</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.55</v>
+        <v>-0.8</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -3430,33 +3430,1087 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>漲升股利150指數</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>7,693.76</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>58.16</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>藍籌30指數</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>7,173.36</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>50.03</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B91" t="n">
+        <v>4</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>工業菁英30指數</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>7,665.23</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>58.8</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B92" t="n">
+        <v>5</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>電子菁英30指數</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>7,468.05</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>103.88</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-1.37</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B93" t="n">
+        <v>6</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>低波動股利精選30指數</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>6,317.37</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B94" t="n">
+        <v>7</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中小型A級動能50指數</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>14,201.02</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>222.08</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B95" t="n">
+        <v>8</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>特選高息低波指數</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>6,542.40</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>32.02</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B96" t="n">
+        <v>9</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>臺灣永續指數</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>7,465.97</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>40.99</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B97" t="n">
+        <v>10</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>特選內需高收益指數</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>5,748.51</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B98" t="n">
+        <v>11</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>價值投資指數</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>5,537.35</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>84.94</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-1.51</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B99" t="n">
+        <v>12</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>存股雙十等權重指數</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>6,540.02</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>68.98999999999999</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B100" t="n">
+        <v>13</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>特選大蘋果指數</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>6,639.90</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>138.85</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-2.05</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B101" t="n">
+        <v>14</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中小型300指數</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>8,247.67</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>75.08</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B102" t="n">
+        <v>15</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>特股高息20指數</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>5,665.70</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>34.13</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B103" t="n">
+        <v>16</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>臺灣500指數</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>7,547.61</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>50.44</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B104" t="n">
+        <v>17</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>臺灣勞工權益指數</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>7,076.39</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B105" t="n">
+        <v>18</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>微波高息精選20指數</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>6,185.43</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>17.21</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B106" t="n">
+        <v>19</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>特選世代行動通訊指數</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>5,850.84</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>73.65000000000001</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-1.24</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B107" t="n">
         <v>20</v>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>智慧投資多因子30指數</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4,699.77</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B108" t="n">
+        <v>21</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>臺股期貨指數</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>7,691.02</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>27.35</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B109" t="n">
+        <v>22</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>特選價值成長指數</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>6,060.47</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>77.51000000000001</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-1.26</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B110" t="n">
+        <v>23</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>臺灣上櫃永續指數</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>5,491.05</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>137.81</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-2.45</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B111" t="n">
+        <v>24</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>特選台股領航指數</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>6,609.01</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>55.79</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-0.84</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B112" t="n">
+        <v>25</v>
+      </c>
+      <c r="C112" t="inlineStr">
         <is>
           <t>特選Smart多因子指數</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>6,985.83</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="H89" t="inlineStr">
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>5,453.72</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>53.24</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B113" t="n">
+        <v>26</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>特選ESG高股息指數</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3,925.68</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B114" t="n">
+        <v>27</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>特選上櫃ESG成長指數</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>3,910.67</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>117.78</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-2.92</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B115" t="n">
+        <v>28</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>特選上櫃ESG電子菁英指數</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>3,967.86</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>123.66</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-3.02</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B116" t="n">
+        <v>29</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>新臺灣高股息指數</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>4,372.24</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>30.09</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B117" t="n">
+        <v>30</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>臺灣優息存股指數</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>4,661.85</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B118" t="n">
+        <v>31</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>特選上櫃ESG永續高股息指數</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>5,536.77</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>148.76</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-2.62</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B119" t="n">
+        <v>32</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>特選臺灣金融高股息存股指數</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>4,947.17</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>33.19</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>價格指數(臺灣指數公司)</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B120" t="n">
+        <v>33</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>上櫃ESG 30指數</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>5,062.89</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>127.12</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-2.45</v>
+      </c>
+      <c r="H120" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
         </is>

--- a/專題/merge.xlsx
+++ b/專題/merge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,7 +484,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16,656.97</t>
+          <t>20,244.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -493,14 +493,14 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>75.23</v>
+        <v>7.73</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.45</v>
+        <v>-0.04</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14,553.04</t>
+          <t>17,688.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -527,14 +527,14 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>76.97</v>
+        <v>8.93</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.53</v>
+        <v>-0.05</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8,305.64</t>
+          <t>10,287.04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -561,14 +561,14 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>62.4</v>
+        <v>20.36</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.75</v>
+        <v>-0.2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11,105.02</t>
+          <t>13,862.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -595,14 +595,14 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>92.58</v>
+        <v>35.85</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.83</v>
+        <v>-0.26</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -620,23 +620,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10,571.34</t>
+          <t>13,107.42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>91.09999999999999</v>
+        <v>17.09</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.85</v>
+        <v>0.13</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -654,23 +654,23 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12,839.81</t>
+          <t>14,540.26</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10.43</v>
+        <v>44.71</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.08</v>
+        <v>0.31</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18,965.38</t>
+          <t>24,239.45</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -697,14 +697,14 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>142.92</v>
+        <v>156.25</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.75</v>
+        <v>-0.64</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -722,23 +722,23 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9,567.20</t>
+          <t>11,198.26</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>62.33</v>
+        <v>122.88</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.65</v>
+        <v>1.11</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -756,23 +756,23 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5,894.98</t>
+          <t>7,729.16</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>16.95</v>
+        <v>60.43</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.29</v>
+        <v>0.79</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -790,23 +790,23 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8,954.63</t>
+          <t>10,277.48</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>61.34</v>
+        <v>16.9</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.68</v>
+        <v>0.16</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -824,23 +824,23 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7,978.28</t>
+          <t>9,459.24</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>58.95</v>
+        <v>41.02</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.73</v>
+        <v>0.44</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12,495.95</t>
+          <t>15,395.17</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -867,14 +867,14 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>63.11</v>
+        <v>17.16</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.5</v>
+        <v>-0.11</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -892,23 +892,23 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>17,117.37</t>
+          <t>19,658.99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>86.09</v>
+        <v>144.52</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.5</v>
+        <v>0.74</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -926,23 +926,23 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14,235.66</t>
+          <t>16,679.36</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>59.22</v>
+        <v>143.93</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.41</v>
+        <v>0.87</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -960,23 +960,23 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8,207.19</t>
+          <t>9,310.68</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>29.46</v>
+        <v>16.64</v>
       </c>
       <c r="G16" t="n">
-        <v>0.36</v>
+        <v>-0.18</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -994,23 +994,23 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>607.49</t>
+          <t>711.59</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.69</v>
+        <v>10.24</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.28</v>
+        <v>1.46</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1028,23 +1028,23 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>820.59</t>
+          <t>932.05</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>8.550000000000001</v>
+        <v>3.53</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.03</v>
+        <v>0.38</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3,776.39</t>
+          <t>4,718.49</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1071,14 +1071,14 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>20.56</v>
+        <v>24.25</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.54</v>
+        <v>-0.51</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1096,23 +1096,23 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>152.60</t>
+          <t>181.27</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.32</v>
+        <v>2.62</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.21</v>
+        <v>1.47</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1,789.51</t>
+          <t>1,858.54</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1139,14 +1139,14 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>6.32</v>
+        <v>5.88</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.35</v>
+        <v>-0.32</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1164,23 +1164,23 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>240.06</t>
+          <t>282.71</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.72</v>
+        <v>0.46</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>587.55</t>
+          <t>628.80</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1207,14 +1207,14 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.89</v>
+        <v>2.55</v>
       </c>
       <c r="G23" t="n">
-        <v>0.49</v>
+        <v>0.41</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1232,23 +1232,23 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>225.58</t>
+          <t>231.02</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.21</v>
+        <v>0.02</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.97</v>
+        <v>0.01</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>106.61</t>
+          <t>80.01</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1275,14 +1275,14 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.84</v>
+        <v>0.19</v>
       </c>
       <c r="G25" t="n">
-        <v>0.79</v>
+        <v>0.24</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1300,23 +1300,23 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>116.12</t>
+          <t>116.13</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.38</v>
+        <v>0.28</v>
       </c>
       <c r="G26" t="n">
-        <v>0.33</v>
+        <v>-0.24</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1334,23 +1334,23 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>128.98</t>
+          <t>139.71</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.16</v>
+        <v>0.01</v>
       </c>
       <c r="G27" t="n">
-        <v>0.91</v>
+        <v>-0.01</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>71.24</t>
+          <t>65.42</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1377,14 +1377,14 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.21</v>
+        <v>-0.53</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1402,23 +1402,23 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>63.42</t>
+          <t>68.63</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.39</v>
+        <v>0.95</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.61</v>
+        <v>1.4</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>294.87</t>
+          <t>401.50</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1445,14 +1445,14 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.71</v>
+        <v>-0.51</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1470,23 +1470,23 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>136.83</t>
+          <t>165.93</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.03</v>
+        <v>0.38</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02</v>
+        <v>-0.23</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1504,23 +1504,23 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>233.34</t>
+          <t>284.73</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.59</v>
+        <v>3.21</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.25</v>
+        <v>1.14</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1538,23 +1538,23 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>337.60</t>
+          <t>331.92</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.33</v>
+        <v>2.32</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.98</v>
+        <v>0.7</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>673.59</t>
+          <t>848.49</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1581,14 +1581,14 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.67</v>
+        <v>4.49</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.54</v>
+        <v>-0.53</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>317.24</t>
+          <t>428.29</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1615,14 +1615,14 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.66</v>
+        <v>3.99</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.83</v>
+        <v>-0.92</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>122.69</t>
+          <t>141.16</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1649,14 +1649,14 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="G36" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>33.73</t>
+          <t>41.17</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1683,14 +1683,14 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.43</v>
       </c>
       <c r="G37" t="n">
-        <v>0.21</v>
+        <v>1.06</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1708,23 +1708,23 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>125.24</t>
+          <t>131.14</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.55</v>
+        <v>0.27</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.44</v>
+        <v>0.21</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1742,23 +1742,23 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>163.24</t>
+          <t>190.76</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.28</v>
+        <v>1.19</v>
       </c>
       <c r="G39" t="n">
-        <v>0.17</v>
+        <v>-0.62</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>170.82</t>
+          <t>178.07</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1785,14 +1785,14 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.82</v>
+        <v>1.52</v>
       </c>
       <c r="G40" t="n">
-        <v>0.48</v>
+        <v>0.86</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>121.64</t>
+          <t>127.28</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1819,14 +1819,14 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.44</v>
+        <v>0.06</v>
       </c>
       <c r="G41" t="n">
-        <v>0.36</v>
+        <v>0.05</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1844,23 +1844,23 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>96.42</t>
+          <t>99.77</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.49</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.51</v>
+        <v>1.01</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1878,23 +1878,23 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>349.13</t>
+          <t>367.02</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.61</v>
+        <v>0.05</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.17</v>
+        <v>0.01</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1912,23 +1912,23 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>155.82</t>
+          <t>266.92</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.24</v>
+        <v>11.65</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.15</v>
+        <v>4.56</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1946,23 +1946,23 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>117.26</t>
+          <t>95.11</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.96</v>
+        <v>0.58</v>
       </c>
       <c r="G45" t="n">
-        <v>1.7</v>
+        <v>-0.61</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1980,23 +1980,23 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1,519.91</t>
+          <t>1,665.15</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>10.64</v>
+        <v>7.19</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.7</v>
+        <v>0.43</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2014,23 +2014,23 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>281.51</t>
+          <t>372.56</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.27</v>
+        <v>0.02</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2048,23 +2048,23 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>106.81</t>
+          <t>126.06</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1.3</v>
+        <v>0.01</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.2</v>
+        <v>0.01</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>356.55</t>
+          <t>384.73</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2091,14 +2091,14 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.52</v>
+        <v>1.1</v>
       </c>
       <c r="G49" t="n">
-        <v>0.15</v>
+        <v>0.29</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>26,514.47</t>
+          <t>40,698.12</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2125,14 +2125,14 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>281.96</v>
+        <v>41.11</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.05</v>
+        <v>-0.1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2150,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4,707.89</t>
+          <t>4,023.05</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2159,14 +2159,14 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>24.64</v>
+        <v>2.03</v>
       </c>
       <c r="G51" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>24,959.47</t>
+          <t>41,886.84</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2193,14 +2193,14 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>273.47</v>
+        <v>445.67</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.08</v>
+        <v>-1.05</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4,265.80</t>
+          <t>3,580.50</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2227,14 +2227,14 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>22.99</v>
+        <v>18.75</v>
       </c>
       <c r="G53" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>111年12月08日 價格指數(臺灣證券交易所)</t>
+          <t>110年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2252,19 +2252,19 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4,448.83</t>
+          <t>4,478.56</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>37.37</v>
+        <v>23.18</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.83</v>
+        <v>0.52</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>6,723.46</t>
+          <t>8,353.78</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2295,10 +2295,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>19.08</v>
+        <v>2.61</v>
       </c>
       <c r="G55" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2320,19 +2320,19 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4,800.40</t>
+          <t>7,942.46</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>8.119999999999999</v>
+        <v>22.04</v>
       </c>
       <c r="G56" t="n">
-        <v>0.17</v>
+        <v>-0.28</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2354,19 +2354,19 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3,429.29</t>
+          <t>4,063.42</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>8.279999999999999</v>
+        <v>9.25</v>
       </c>
       <c r="G57" t="n">
-        <v>0.24</v>
+        <v>-0.23</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2383,24 +2383,24 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>臺灣5G指數</t>
+          <t>臺灣企業社會責任中小型指數</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>7,286.27</t>
+          <t>8,668.52</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>72.56</v>
+        <v>21.96</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.99</v>
+        <v>0.25</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2417,12 +2417,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>臺灣企業社會責任中小型指數</t>
+          <t>臺灣5G+通訊指數</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>7,879.69</t>
+          <t>7,042.59</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2431,7 +2431,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>10.89</v>
+        <v>9.6</v>
       </c>
       <c r="G59" t="n">
         <v>0.14</v>
@@ -2451,24 +2451,24 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>特選臺灣電動車代表指數</t>
+          <t>臺灣全市場指數</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5,623.22</t>
+          <t>6,045.15</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>8.699999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="G60" t="n">
-        <v>0.15</v>
+        <v>-0.03</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2485,12 +2485,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>臺灣5G+通訊指數</t>
+          <t>臺灣全市場半導體指數</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>5,447.52</t>
+          <t>6,774.24</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2499,10 +2499,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>44.47</v>
+        <v>22.73</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-0.33</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2519,24 +2519,24 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>臺灣全市場指數</t>
+          <t>臺灣電動車與自駕科技永續概念指數</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4,934.77</t>
+          <t>5,232.73</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>23.78</v>
+        <v>5.32</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.48</v>
+        <v>0.1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2553,12 +2553,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>臺灣全市場半導體指數</t>
+          <t>特選小資高價30指數</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>4,576.02</t>
+          <t>5,702.60</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>38.57</v>
+        <v>19.72</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.84</v>
+        <v>-0.34</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2587,24 +2587,24 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>臺灣電動車與自駕科技永續概念指數</t>
+          <t>特選臺灣綠能及電動車指數</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4,040.45</t>
+          <t>5,004.77</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>26.07</v>
+        <v>21.32</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.64</v>
+        <v>0.43</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2621,24 +2621,24 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>臺灣智慧移動與電動車指數</t>
+          <t>特選臺灣智能車供應鏈聯盟指數</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3,783.42</t>
+          <t>5,072.07</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>37.92</v>
+        <v>0.39</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.99</v>
+        <v>0.01</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2655,12 +2655,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>特選小資高價30指數</t>
+          <t>臺灣全市場半導體精選30指數</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>4,387.74</t>
+          <t>5,394.52</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2669,10 +2669,10 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>16.71</v>
+        <v>18.65</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.38</v>
+        <v>-0.34</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2689,24 +2689,24 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>特選臺灣綠能及電動車指數</t>
+          <t>特選臺灣高股息30指數</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4,263.61</t>
+          <t>5,289.03</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>15</v>
+        <v>25.36</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.35</v>
+        <v>0.48</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2723,24 +2723,24 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>特選臺灣智能車供應鏈聯盟指數</t>
+          <t>臺灣友善環境指數</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>4,090.97</t>
+          <t>5,464.08</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>25.7</v>
+        <v>33.92</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.62</v>
+        <v>0.62</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -2750,53 +2750,53 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>臺灣全市場半導體精選30指數</t>
+          <t>金融類日報酬兩倍指數</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3,618.46</t>
+          <t>31,637.14</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>32.47</v>
+        <v>272.04</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.89</v>
+        <v>0.87</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>價格指數(跨市場)</t>
+          <t>價格指數(臺灣指數公司)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B70" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>特選臺灣高股息30指數</t>
+          <t>金融類日報酬反向一倍指數</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3,716.14</t>
+          <t>4,734.32</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2805,168 +2805,168 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>4.02</v>
+        <v>20.62</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.11</v>
+        <v>-0.43</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>價格指數(跨市場)</t>
+          <t>價格指數(臺灣指數公司)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B71" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>臺灣友善環境指數</t>
+          <t>漲升股利150指數</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4,376.91</t>
+          <t>9,115.38</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>28.11</v>
+        <v>4.9</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.64</v>
+        <v>0.05</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>價格指數(跨市場)</t>
+          <t>價格指數(臺灣指數公司)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B72" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>台灣永續價值指數</t>
+          <t>漲升股利100指數</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>4,120.91</t>
+          <t>7,797.12</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>26.97</v>
+        <v>5.39</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>價格指數(跨市場)</t>
+          <t>價格指數(臺灣指數公司)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B73" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>特選臺灣IC設計指數</t>
+          <t>藍籌30指數</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2,655.85</t>
+          <t>8,755.02</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>31.58</v>
+        <v>13.11</v>
       </c>
       <c r="G73" t="n">
-        <v>-1.18</v>
+        <v>0.15</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>價格指數(跨市場)</t>
+          <t>價格指數(臺灣指數公司)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B74" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>特選臺灣環境永續高股息指數</t>
+          <t>工業菁英30指數</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3,931.82</t>
+          <t>9,913.08</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>7.5</v>
+        <v>5.26</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.19</v>
+        <v>0.05</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>價格指數(跨市場)</t>
+          <t>價格指數(臺灣指數公司)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B75" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>臺灣友善環境50指數</t>
+          <t>電子菁英30指數</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3,815.58</t>
+          <t>9,113.56</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2975,66 +2975,66 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>30.32</v>
+        <v>13.39</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.79</v>
+        <v>-0.15</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>價格指數(跨市場)</t>
+          <t>價格指數(臺灣指數公司)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B76" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>特選台灣策略高股息30指數</t>
+          <t>低波動股利精選30指數</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3,603.32</t>
+          <t>7,145.22</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3.18</v>
+        <v>11.46</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.09</v>
+        <v>0.16</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>價格指數(跨市場)</t>
+          <t>價格指數(臺灣指數公司)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B77" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>特選臺灣IC設計產業代表指數</t>
+          <t>低貝塔100指數</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3,201.23</t>
+          <t>7,392.99</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3043,32 +3043,32 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>4.95</v>
+        <v>2.91</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.15</v>
+        <v>-0.04</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>價格指數(跨市場)</t>
+          <t>價格指數(臺灣指數公司)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B78" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>特選臺灣綠能指數</t>
+          <t>中小型精選50指數</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4,695.84</t>
+          <t>7,687.82</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3077,32 +3077,32 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>23.57</v>
+        <v>48.96</v>
       </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>價格指數(跨市場)</t>
+          <t>價格指數(臺灣指數公司)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B79" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>特選臺灣成長高股息指數</t>
+          <t>中小型A級動能50指數</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>3,758.44</t>
+          <t>16,061.96</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3111,66 +3111,66 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>17.58</v>
+        <v>201.7</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.47</v>
+        <v>-1.24</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>價格指數(跨市場)</t>
+          <t>價格指數(臺灣指數公司)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B80" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>特選臺灣智慧50指數</t>
+          <t>特選高息低波指數</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3,621.91</t>
+          <t>7,369.15</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>37.14</v>
+        <v>21.36</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.02</v>
+        <v>0.29</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>價格指數(跨市場)</t>
+          <t>價格指數(臺灣指數公司)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B81" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>特選臺灣標竿PCB指數</t>
+          <t>臺灣永續指數</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>3,849.73</t>
+          <t>8,964.73</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3179,134 +3179,134 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>22.65</v>
+        <v>11.89</v>
       </c>
       <c r="G81" t="n">
-        <v>0.59</v>
+        <v>0.13</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>價格指數(跨市場)</t>
+          <t>價格指數(臺灣指數公司)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B82" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>臺灣晶圓製造指數</t>
+          <t>特選內需高收益指數</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4,179.24</t>
+          <t>6,085.08</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>36.65</v>
+        <v>17.92</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.87</v>
+        <v>0.3</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>價格指數(跨市場)</t>
+          <t>價格指數(臺灣指數公司)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B83" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>臺灣精選高息指數</t>
+          <t>價值投資指數</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>3,669.43</t>
+          <t>8,454.03</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>11.56</v>
+        <v>89.09</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.31</v>
+        <v>1.07</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>價格指數(跨市場)</t>
+          <t>價格指數(臺灣指數公司)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B84" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>臺灣多因子優選高股息30指數</t>
+          <t>中小型300指數</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4,702.04</t>
+          <t>9,365.04</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>9.130000000000001</v>
+        <v>15.98</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.19</v>
+        <v>0.17</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>價格指數(跨市場)</t>
+          <t>價格指數(臺灣指數公司)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B85" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>特選臺灣優利高填息30指數</t>
+          <t>臺灣勞工權益指數</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4,306.21</t>
+          <t>7,961.66</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3315,32 +3315,32 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>21.15</v>
+        <v>0.71</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.49</v>
+        <v>-0.01</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>價格指數(跨市場)</t>
+          <t>價格指數(臺灣指數公司)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B86" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>臺灣多因子優選成長30指數</t>
+          <t>智慧投資多因子30指數</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5,202.25</t>
+          <t>6,070.02</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3349,32 +3349,32 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>12.46</v>
+        <v>16.87</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.24</v>
+        <v>-0.28</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>價格指數(跨市場)</t>
+          <t>價格指數(臺灣指數公司)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>金融類日報酬兩倍指數</t>
+          <t>臺股期貨指數</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>25,525.28</t>
+          <t>8,736.94</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3383,10 +3383,10 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>359.89</v>
+        <v>6.42</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.39</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -3396,31 +3396,31 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B88" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>金融類日報酬反向一倍指數</t>
+          <t>臺灣上櫃永續指數</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>5,023.18</t>
+          <t>7,050.48</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>34.68</v>
+        <v>38.78</v>
       </c>
       <c r="G88" t="n">
-        <v>0.7</v>
+        <v>-0.55</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -3430,19 +3430,19 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B89" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>漲升股利150指數</t>
+          <t>特選Smart多因子指數</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>7,637.52</t>
+          <t>6,985.83</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3451,1066 +3451,12 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>56.24</v>
+        <v>3.16</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.73</v>
+        <v>-0.05</v>
       </c>
       <c r="H89" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B90" t="n">
-        <v>3</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>藍籌30指數</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>7,096.66</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-1.07</v>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B91" t="n">
-        <v>4</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>工業菁英30指數</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>7,580.22</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>85.01000000000001</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B92" t="n">
-        <v>5</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>電子菁英30指數</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>7,429.90</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>38.15</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-0.51</v>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B93" t="n">
-        <v>6</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>低波動股利精選30指數</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>6,297.64</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F93" t="n">
-        <v>19.73</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-0.31</v>
-      </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B94" t="n">
-        <v>7</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>中小型A級動能50指數</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>14,420.36</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>219.34</v>
-      </c>
-      <c r="G94" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B95" t="n">
-        <v>8</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>特選高息低波指數</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>6,522.47</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>19.93</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B96" t="n">
-        <v>9</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>臺灣永續指數</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>7,413.40</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>52.57</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-0.7</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B97" t="n">
-        <v>10</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>特選內需高收益指數</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>5,718.74</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>29.77</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-0.52</v>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B98" t="n">
-        <v>11</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>價值投資指數</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>5,486.42</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>50.93</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-0.92</v>
-      </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B99" t="n">
-        <v>12</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>存股雙十等權重指數</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>6,492.74</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>47.28</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-0.72</v>
-      </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B100" t="n">
-        <v>13</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>特選大蘋果指數</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>6,601.33</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>38.57</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-0.58</v>
-      </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B101" t="n">
-        <v>14</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>中小型300指數</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>8,250.87</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B102" t="n">
-        <v>15</v>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>特股高息20指數</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>5,657.12</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F102" t="n">
-        <v>8.58</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-0.15</v>
-      </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B103" t="n">
-        <v>16</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>臺灣500指數</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>7,506.06</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F103" t="n">
-        <v>41.55</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-0.55</v>
-      </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B104" t="n">
-        <v>17</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>臺灣勞工權益指數</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>7,035.50</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F104" t="n">
-        <v>40.89</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-0.58</v>
-      </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B105" t="n">
-        <v>18</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>微波高息精選20指數</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>6,159.06</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F105" t="n">
-        <v>26.37</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-0.43</v>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B106" t="n">
-        <v>19</v>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>特選世代行動通訊指數</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>5,851.37</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F106" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B107" t="n">
-        <v>20</v>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>智慧投資多因子30指數</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>4,676.59</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F107" t="n">
-        <v>23.18</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B108" t="n">
-        <v>21</v>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>臺股期貨指數</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>7,624.22</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F108" t="n">
-        <v>66.8</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-0.87</v>
-      </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B109" t="n">
-        <v>22</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>特選價值成長指數</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>6,061.46</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F109" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B110" t="n">
-        <v>23</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>臺灣上櫃永續指數</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>5,496.26</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F110" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B111" t="n">
-        <v>24</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>特選台股領航指數</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>6,545.90</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F111" t="n">
-        <v>63.11</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-0.95</v>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B112" t="n">
-        <v>25</v>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>特選Smart多因子指數</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>5,412.45</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F112" t="n">
-        <v>41.27</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-0.76</v>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B113" t="n">
-        <v>26</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>特選ESG高股息指數</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>3,890.68</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F113" t="n">
-        <v>35</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-0.89</v>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B114" t="n">
-        <v>27</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>特選上櫃ESG成長指數</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>3,901.79</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F114" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-0.23</v>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B115" t="n">
-        <v>28</v>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>特選上櫃ESG電子菁英指數</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>3,972.28</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F115" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B116" t="n">
-        <v>29</v>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>新臺灣高股息指數</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>4,361.94</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F116" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-0.24</v>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B117" t="n">
-        <v>30</v>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>臺灣優息存股指數</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>4,641.94</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F117" t="n">
-        <v>19.91</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-0.43</v>
-      </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B118" t="n">
-        <v>31</v>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>特選上櫃ESG永續高股息指數</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>5,540.59</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F118" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B119" t="n">
-        <v>32</v>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>特選臺灣金融高股息存股指數</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>4,919.34</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F119" t="n">
-        <v>27.83</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-0.5600000000000001</v>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>價格指數(臺灣指數公司)</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B120" t="n">
-        <v>33</v>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>上櫃ESG 30指數</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>5,073.43</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F120" t="n">
-        <v>10.54</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="H120" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
         </is>

--- a/專題/merge.xlsx
+++ b/專題/merge.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16,732.20</t>
+          <t>16,857.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -492,15 +492,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>125.4</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>285.74</t>
+        </is>
       </c>
       <c r="G2" t="n">
-        <v>-0.74</v>
+        <v>-1.67</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -518,7 +520,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14,630.01</t>
+          <t>14,728.88</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -526,15 +528,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>98.87</v>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>251.86</t>
+        </is>
       </c>
       <c r="G3" t="n">
-        <v>-0.67</v>
+        <v>-1.68</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -552,7 +556,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8,368.04</t>
+          <t>8,418.23</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -560,15 +564,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>50.19</v>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>151.21</t>
+        </is>
       </c>
       <c r="G4" t="n">
-        <v>-0.6</v>
+        <v>-1.76</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -586,7 +592,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11,197.60</t>
+          <t>11,261.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -594,15 +600,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>63.59</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>211.35</t>
+        </is>
       </c>
       <c r="G5" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-1.84</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -620,7 +628,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10,662.44</t>
+          <t>10,720.90</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -628,15 +636,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>58.46</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>187.19</t>
+        </is>
       </c>
       <c r="G6" t="n">
-        <v>-0.55</v>
+        <v>-1.72</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -654,7 +664,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12,850.24</t>
+          <t>12,972.90</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -662,15 +672,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>122.66</v>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>174.59</t>
+        </is>
       </c>
       <c r="G7" t="n">
-        <v>-0.95</v>
+        <v>-1.33</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -688,7 +700,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>19,108.30</t>
+          <t>19,312.86</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -696,15 +708,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>204.56</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>417.99</t>
+        </is>
       </c>
       <c r="G8" t="n">
-        <v>-1.06</v>
+        <v>-2.12</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -722,7 +736,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9,629.53</t>
+          <t>9,644.65</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -730,15 +744,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>15.12</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>108.57</t>
+        </is>
       </c>
       <c r="G9" t="n">
-        <v>-0.16</v>
+        <v>-1.11</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -756,7 +772,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5,911.93</t>
+          <t>5,976.36</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -764,15 +780,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>64.43000000000001</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
       </c>
       <c r="G10" t="n">
-        <v>-1.08</v>
+        <v>-1.35</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -790,7 +808,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9,015.97</t>
+          <t>9,072.62</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -798,15 +816,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>56.65</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>138.40</t>
+        </is>
       </c>
       <c r="G11" t="n">
-        <v>-0.62</v>
+        <v>-1.5</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -824,7 +844,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8,037.23</t>
+          <t>8,062.73</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -832,15 +852,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>25.5</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>129.90</t>
+        </is>
       </c>
       <c r="G12" t="n">
-        <v>-0.32</v>
+        <v>-1.59</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -858,7 +880,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12,559.06</t>
+          <t>12,669.78</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -866,15 +888,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>110.72</v>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>225.55</t>
+        </is>
       </c>
       <c r="G13" t="n">
-        <v>-0.87</v>
+        <v>-1.75</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -892,23 +916,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>17,203.46</t>
+          <t>17,200.35</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3.11</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>210.83</t>
+        </is>
       </c>
       <c r="G14" t="n">
-        <v>0.02</v>
+        <v>-1.21</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -926,7 +952,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14,294.88</t>
+          <t>14,341.43</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -934,15 +960,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>46.55</v>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>177.40</t>
+        </is>
       </c>
       <c r="G15" t="n">
-        <v>-0.32</v>
+        <v>-1.22</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -960,7 +988,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8,177.73</t>
+          <t>8,265.32</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -968,15 +996,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>87.59</v>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>133.04</t>
+        </is>
       </c>
       <c r="G16" t="n">
-        <v>-1.06</v>
+        <v>-1.58</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -994,23 +1024,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>609.18</t>
+          <t>607.85</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1.33</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
       </c>
       <c r="G17" t="n">
-        <v>0.22</v>
+        <v>-0.5</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1060,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>829.14</t>
+          <t>833.24</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1036,15 +1068,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>4.1</v>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
       </c>
       <c r="G18" t="n">
-        <v>-0.49</v>
+        <v>-1.5</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1096,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3,796.95</t>
+          <t>3,839.88</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1070,15 +1104,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>42.93</v>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>76.27</t>
+        </is>
       </c>
       <c r="G19" t="n">
-        <v>-1.12</v>
+        <v>-1.95</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1132,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>152.92</t>
+          <t>153.31</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1104,15 +1140,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>0.39</v>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
       </c>
       <c r="G20" t="n">
-        <v>-0.25</v>
+        <v>-0.73</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1130,23 +1168,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1,795.83</t>
+          <t>1,785.59</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10.24</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
       </c>
       <c r="G21" t="n">
-        <v>0.57</v>
+        <v>-1.34</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1204,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>244.26</t>
+          <t>245.37</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1172,15 +1212,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>1.11</v>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
       </c>
       <c r="G22" t="n">
-        <v>-0.45</v>
+        <v>-1.36</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1198,23 +1240,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>584.66</t>
+          <t>584.16</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>0.5</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
       </c>
       <c r="G23" t="n">
-        <v>0.09</v>
+        <v>-0.32</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1276,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>227.79</t>
+          <t>229.14</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1240,15 +1284,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F24" t="n">
-        <v>1.35</v>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
       </c>
       <c r="G24" t="n">
-        <v>-0.59</v>
+        <v>-0.46</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1312,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>105.77</t>
+          <t>107.61</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1274,15 +1320,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>1.84</v>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
       </c>
       <c r="G25" t="n">
-        <v>-1.71</v>
+        <v>-1.47</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1300,7 +1348,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>115.74</t>
+          <t>116.29</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1308,15 +1356,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>0.55</v>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
       </c>
       <c r="G26" t="n">
-        <v>-0.47</v>
+        <v>-1.93</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1384,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>127.82</t>
+          <t>128.93</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1342,15 +1392,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>1.11</v>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
       </c>
       <c r="G27" t="n">
-        <v>-0.86</v>
+        <v>-1.57</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1420,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>71.39</t>
+          <t>71.47</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1376,15 +1428,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>0.08</v>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
       </c>
       <c r="G28" t="n">
-        <v>-0.11</v>
+        <v>-2.26</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1402,7 +1456,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>63.81</t>
+          <t>62.16</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1410,15 +1464,17 @@
           <t>+</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>1.65</v>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
       </c>
       <c r="G29" t="n">
-        <v>2.65</v>
+        <v>0.71</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1492,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>296.99</t>
+          <t>297.97</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1444,15 +1500,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>0.98</v>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
       </c>
       <c r="G30" t="n">
-        <v>-0.33</v>
+        <v>-2.21</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1470,7 +1528,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>136.80</t>
+          <t>137.35</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1478,15 +1536,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>0.55</v>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
       </c>
       <c r="G31" t="n">
-        <v>-0.4</v>
+        <v>-0.93</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1564,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>233.93</t>
+          <t>235.89</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1512,15 +1572,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>1.96</v>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
       </c>
       <c r="G32" t="n">
-        <v>-0.83</v>
+        <v>-1.26</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1600,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>340.93</t>
+          <t>344.00</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1546,15 +1608,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>3.07</v>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
       </c>
       <c r="G33" t="n">
-        <v>-0.89</v>
+        <v>-0.86</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1572,7 +1636,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>677.26</t>
+          <t>684.98</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1580,15 +1644,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>7.72</v>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
       </c>
       <c r="G34" t="n">
-        <v>-1.13</v>
+        <v>-1.99</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1672,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>319.90</t>
+          <t>323.04</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1614,15 +1680,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>3.14</v>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
       </c>
       <c r="G35" t="n">
-        <v>-0.97</v>
+        <v>-2.36</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1640,7 +1708,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>122.61</t>
+          <t>124.10</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1648,15 +1716,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F36" t="n">
-        <v>1.49</v>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
       </c>
       <c r="G36" t="n">
-        <v>-1.2</v>
+        <v>-1.14</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1744,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>33.66</t>
+          <t>34.22</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1682,15 +1752,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>0.5600000000000001</v>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
       </c>
       <c r="G37" t="n">
-        <v>-1.64</v>
+        <v>-1.55</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1708,7 +1780,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>125.79</t>
+          <t>125.80</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1716,15 +1788,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>0.01</v>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
       </c>
       <c r="G38" t="n">
-        <v>-0.01</v>
+        <v>-0.74</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1742,7 +1816,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>162.96</t>
+          <t>167.80</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1750,15 +1824,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>4.84</v>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
       </c>
       <c r="G39" t="n">
-        <v>-2.88</v>
+        <v>-1.32</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1852,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>170.00</t>
+          <t>171.70</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1784,15 +1860,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F40" t="n">
-        <v>1.7</v>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
       </c>
       <c r="G40" t="n">
-        <v>-0.99</v>
+        <v>-1.25</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1888,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>121.20</t>
+          <t>122.17</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1818,15 +1896,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F41" t="n">
-        <v>0.97</v>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
       </c>
       <c r="G41" t="n">
-        <v>-0.79</v>
+        <v>-1.45</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1924,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>96.91</t>
+          <t>97.61</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1852,15 +1932,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>0.7</v>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
       </c>
       <c r="G42" t="n">
-        <v>-0.72</v>
+        <v>-2.22</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1878,7 +1960,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>349.74</t>
+          <t>349.77</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1886,15 +1968,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F43" t="n">
-        <v>0.03</v>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
       </c>
       <c r="G43" t="n">
-        <v>-0.01</v>
+        <v>-1.08</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1912,7 +1996,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>156.06</t>
+          <t>156.75</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1920,15 +2004,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F44" t="n">
-        <v>0.6899999999999999</v>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
       </c>
       <c r="G44" t="n">
-        <v>-0.44</v>
+        <v>-3.14</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1946,23 +2032,25 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>115.30</t>
+          <t>116.60</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>1.3</v>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
       </c>
       <c r="G45" t="n">
-        <v>-1.11</v>
+        <v>0.51</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1980,23 +2068,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1,530.55</t>
+          <t>1,518.40</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>12.15</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
       </c>
       <c r="G46" t="n">
-        <v>0.8</v>
+        <v>-1.19</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2014,23 +2104,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>282.28</t>
+          <t>276.55</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>5.73</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
       </c>
       <c r="G47" t="n">
-        <v>2.07</v>
+        <v>-1.34</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2048,7 +2140,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>108.11</t>
+          <t>109.24</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2056,15 +2148,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>1.13</v>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
       </c>
       <c r="G48" t="n">
-        <v>-1.03</v>
+        <v>-1.04</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2176,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>356.03</t>
+          <t>357.93</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2090,15 +2184,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>1.9</v>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
       </c>
       <c r="G49" t="n">
-        <v>-0.53</v>
+        <v>-0.47</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2212,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>26,796.43</t>
+          <t>27,161.08</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2124,15 +2220,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F50" t="n">
-        <v>364.65</v>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>945.05</t>
+        </is>
       </c>
       <c r="G50" t="n">
-        <v>-1.34</v>
+        <v>-3.36</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2150,7 +2248,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4,683.25</t>
+          <t>4,652.02</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2158,15 +2256,17 @@
           <t>+</t>
         </is>
       </c>
-      <c r="F51" t="n">
-        <v>31.23</v>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
       </c>
       <c r="G51" t="n">
-        <v>0.67</v>
+        <v>1.68</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2184,7 +2284,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>25,232.94</t>
+          <t>25,814.83</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2192,15 +2292,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F52" t="n">
-        <v>581.89</v>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1,069.40</t>
+        </is>
       </c>
       <c r="G52" t="n">
-        <v>-2.25</v>
+        <v>-3.98</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2320,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4,242.81</t>
+          <t>4,195.52</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2226,15 +2328,17 @@
           <t>+</t>
         </is>
       </c>
-      <c r="F53" t="n">
-        <v>47.29</v>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>81.82</t>
+        </is>
       </c>
       <c r="G53" t="n">
-        <v>1.13</v>
+        <v>1.99</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>111年12月07日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2252,19 +2356,19 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4,486.20</t>
+          <t>4,480.53</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>5.67</v>
+        <v>99.08</v>
       </c>
       <c r="G54" t="n">
-        <v>0.13</v>
+        <v>-2.16</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2286,7 +2390,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>6,704.38</t>
+          <t>6,781.33</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2295,10 +2399,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>76.95</v>
+        <v>138.78</v>
       </c>
       <c r="G55" t="n">
-        <v>-1.13</v>
+        <v>-2.01</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2320,7 +2424,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4,792.28</t>
+          <t>4,869.27</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2329,10 +2433,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>76.98999999999999</v>
+        <v>127.59</v>
       </c>
       <c r="G56" t="n">
-        <v>-1.58</v>
+        <v>-2.55</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2354,19 +2458,19 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3,421.01</t>
+          <t>3,416.33</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>4.68</v>
+        <v>15.83</v>
       </c>
       <c r="G57" t="n">
-        <v>0.14</v>
+        <v>-0.46</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2388,7 +2492,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>7,358.83</t>
+          <t>7,462.81</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2397,10 +2501,10 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>103.98</v>
+        <v>134.76</v>
       </c>
       <c r="G58" t="n">
-        <v>-1.39</v>
+        <v>-1.77</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2422,7 +2526,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>7,868.80</t>
+          <t>7,915.39</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2431,10 +2535,10 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>46.59</v>
+        <v>112.03</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.59</v>
+        <v>-1.4</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2456,7 +2560,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5,614.52</t>
+          <t>5,709.86</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2465,10 +2569,10 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>95.34</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>-1.67</v>
+        <v>-1.14</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2490,7 +2594,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>5,491.99</t>
+          <t>5,565.60</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2499,10 +2603,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>73.61</v>
+        <v>108.71</v>
       </c>
       <c r="G61" t="n">
-        <v>-1.32</v>
+        <v>-1.92</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2524,7 +2628,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4,958.55</t>
+          <t>4,996.26</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2533,10 +2637,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>37.71</v>
+        <v>87.72</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.75</v>
+        <v>-1.73</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2558,7 +2662,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>4,614.59</t>
+          <t>4,690.22</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2567,10 +2671,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>75.63</v>
+        <v>119.21</v>
       </c>
       <c r="G63" t="n">
-        <v>-1.61</v>
+        <v>-2.48</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2592,7 +2696,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4,066.52</t>
+          <t>4,128.33</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2601,10 +2705,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>61.81</v>
+        <v>71.20999999999999</v>
       </c>
       <c r="G64" t="n">
-        <v>-1.5</v>
+        <v>-1.7</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2626,7 +2730,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3,821.34</t>
+          <t>3,910.47</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2635,10 +2739,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>89.13</v>
+        <v>82.45</v>
       </c>
       <c r="G65" t="n">
-        <v>-2.28</v>
+        <v>-2.06</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2660,7 +2764,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>4,404.45</t>
+          <t>4,465.39</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2669,10 +2773,10 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>60.94</v>
+        <v>83.94</v>
       </c>
       <c r="G66" t="n">
-        <v>-1.36</v>
+        <v>-1.85</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2694,7 +2798,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4,278.61</t>
+          <t>4,327.33</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2703,10 +2807,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>48.72</v>
+        <v>63.44</v>
       </c>
       <c r="G67" t="n">
-        <v>-1.13</v>
+        <v>-1.44</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2728,7 +2832,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>4,116.67</t>
+          <t>4,174.35</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2737,10 +2841,10 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>57.68</v>
+        <v>75.55</v>
       </c>
       <c r="G68" t="n">
-        <v>-1.38</v>
+        <v>-1.78</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -2762,7 +2866,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3,650.93</t>
+          <t>3,711.01</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2771,10 +2875,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>60.08</v>
+        <v>94.16</v>
       </c>
       <c r="G69" t="n">
-        <v>-1.62</v>
+        <v>-2.47</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2796,7 +2900,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3,720.16</t>
+          <t>3,765.85</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2805,10 +2909,10 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>45.69</v>
+        <v>67.16</v>
       </c>
       <c r="G70" t="n">
-        <v>-1.21</v>
+        <v>-1.75</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -2830,7 +2934,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4,405.02</t>
+          <t>4,438.50</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2839,10 +2943,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>33.48</v>
+        <v>81.20999999999999</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.75</v>
+        <v>-1.8</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2864,7 +2968,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>4,147.88</t>
+          <t>4,165.31</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2873,10 +2977,10 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>17.43</v>
+        <v>59.34</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.42</v>
+        <v>-1.4</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -2898,7 +3002,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2,687.43</t>
+          <t>2,746.68</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2907,10 +3011,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>59.25</v>
+        <v>113.36</v>
       </c>
       <c r="G73" t="n">
-        <v>-2.16</v>
+        <v>-3.96</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2932,7 +3036,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3,939.32</t>
+          <t>3,989.13</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2941,10 +3045,10 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>49.81</v>
+        <v>74.55</v>
       </c>
       <c r="G74" t="n">
-        <v>-1.25</v>
+        <v>-1.83</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -2966,7 +3070,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3,845.90</t>
+          <t>3,874.58</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2975,10 +3079,10 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>28.68</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.74</v>
+        <v>-1.8</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -3000,7 +3104,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3,606.50</t>
+          <t>3,649.39</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3009,10 +3113,10 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>42.89</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="G76" t="n">
-        <v>-1.18</v>
+        <v>-1.9</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3034,7 +3138,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3,206.18</t>
+          <t>3,268.87</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3043,10 +3147,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>62.69</v>
+        <v>97.97</v>
       </c>
       <c r="G77" t="n">
-        <v>-1.92</v>
+        <v>-2.91</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3068,7 +3172,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4,672.27</t>
+          <t>4,757.05</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3077,10 +3181,10 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>84.78</v>
+        <v>26.02</v>
       </c>
       <c r="G78" t="n">
-        <v>-1.78</v>
+        <v>-0.54</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3102,7 +3206,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>3,776.02</t>
+          <t>3,820.51</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3111,10 +3215,10 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>44.49</v>
+        <v>98.68000000000001</v>
       </c>
       <c r="G79" t="n">
-        <v>-1.16</v>
+        <v>-2.52</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -3136,7 +3240,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3,659.05</t>
+          <t>3,701.09</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3145,10 +3249,10 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>42.04</v>
+        <v>92.34</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.14</v>
+        <v>-2.43</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3170,7 +3274,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>3,827.08</t>
+          <t>4,020.25</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3179,10 +3283,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>193.17</v>
+        <v>45.68</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.8</v>
+        <v>-1.12</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3204,7 +3308,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4,215.89</t>
+          <t>4,285.90</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3213,10 +3317,10 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>70.01000000000001</v>
+        <v>109.72</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.63</v>
+        <v>-2.5</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3238,7 +3342,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>3,680.99</t>
+          <t>3,720.21</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3247,10 +3351,10 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>39.22</v>
+        <v>72.73</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.05</v>
+        <v>-1.92</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -3272,7 +3376,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4,711.17</t>
+          <t>4,744.13</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3281,10 +3385,10 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>32.96</v>
+        <v>57.58</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-1.2</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -3306,7 +3410,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4,327.36</t>
+          <t>4,364.52</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3315,10 +3419,10 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>37.16</v>
+        <v>89.18000000000001</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.85</v>
+        <v>-2</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -3340,7 +3444,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5,214.71</t>
+          <t>5,253.86</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3349,10 +3453,10 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>39.15</v>
+        <v>65.86</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.75</v>
+        <v>-1.24</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -3374,19 +3478,19 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>25,885.17</t>
+          <t>25,477.44</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>407.73</v>
+        <v>618.86</v>
       </c>
       <c r="G87" t="n">
-        <v>1.6</v>
+        <v>-2.37</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -3408,19 +3512,19 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4,988.50</t>
+          <t>5,028.74</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>40.24</v>
+        <v>58.93</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.8</v>
+        <v>1.19</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -3442,7 +3546,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>7,693.76</t>
+          <t>7,751.92</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3451,10 +3555,10 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>58.16</v>
+        <v>121.27</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.75</v>
+        <v>-1.54</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -3476,7 +3580,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>7,173.36</t>
+          <t>7,223.39</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3485,10 +3589,10 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>50.03</v>
+        <v>118.88</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-1.62</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -3510,7 +3614,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>7,665.23</t>
+          <t>7,724.03</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3519,10 +3623,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>58.8</v>
+        <v>146.2</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.76</v>
+        <v>-1.86</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -3544,7 +3648,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>7,468.05</t>
+          <t>7,571.93</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3553,10 +3657,10 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>103.88</v>
+        <v>155.45</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.37</v>
+        <v>-2.01</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -3578,19 +3682,19 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>6,317.37</t>
+          <t>6,302.03</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>15.34</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="G93" t="n">
-        <v>0.24</v>
+        <v>-1.03</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -3612,7 +3716,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>14,201.02</t>
+          <t>14,423.10</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3621,10 +3725,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>222.08</v>
+        <v>259.89</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.54</v>
+        <v>-1.77</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -3646,7 +3750,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>6,542.40</t>
+          <t>6,574.42</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3655,10 +3759,10 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>32.02</v>
+        <v>84</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.49</v>
+        <v>-1.26</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -3680,7 +3784,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>7,465.97</t>
+          <t>7,506.96</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3689,10 +3793,10 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>40.99</v>
+        <v>120.71</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.55</v>
+        <v>-1.58</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -3714,19 +3818,19 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>5,748.51</t>
+          <t>5,734.34</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>14.17</v>
+        <v>41.62</v>
       </c>
       <c r="G97" t="n">
-        <v>0.25</v>
+        <v>-0.72</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -3748,7 +3852,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>5,537.35</t>
+          <t>5,622.29</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3757,10 +3861,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>84.94</v>
+        <v>175.4</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.51</v>
+        <v>-3.03</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -3782,7 +3886,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>6,540.02</t>
+          <t>6,609.01</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3791,10 +3895,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>68.98999999999999</v>
+        <v>131.26</v>
       </c>
       <c r="G99" t="n">
-        <v>-1.04</v>
+        <v>-1.95</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -3816,7 +3920,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>6,639.90</t>
+          <t>6,778.75</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3825,10 +3929,10 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>138.85</v>
+        <v>81.61</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.05</v>
+        <v>-1.19</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -3850,7 +3954,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>8,247.67</t>
+          <t>8,322.75</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3859,10 +3963,10 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>75.08</v>
+        <v>126.58</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.9</v>
+        <v>-1.5</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -3884,19 +3988,19 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>5,665.70</t>
+          <t>5,631.57</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>34.13</v>
+        <v>44.2</v>
       </c>
       <c r="G102" t="n">
-        <v>0.61</v>
+        <v>-0.78</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -3918,7 +4022,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>7,547.61</t>
+          <t>7,598.05</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3927,10 +4031,10 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>50.44</v>
+        <v>129.09</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.66</v>
+        <v>-1.67</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -3952,19 +4056,19 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>7,076.39</t>
+          <t>7,072.57</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>3.82</v>
+        <v>88.45999999999999</v>
       </c>
       <c r="G104" t="n">
-        <v>0.05</v>
+        <v>-1.24</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -3986,19 +4090,19 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>6,185.43</t>
+          <t>6,168.22</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>17.21</v>
+        <v>45.51</v>
       </c>
       <c r="G105" t="n">
-        <v>0.28</v>
+        <v>-0.73</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -4020,7 +4124,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>5,850.84</t>
+          <t>5,924.49</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4029,10 +4133,10 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>73.65000000000001</v>
+        <v>61.24</v>
       </c>
       <c r="G106" t="n">
-        <v>-1.24</v>
+        <v>-1.02</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -4054,7 +4158,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>4,699.77</t>
+          <t>4,707.49</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4063,10 +4167,10 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>7.72</v>
+        <v>92.08</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.16</v>
+        <v>-1.92</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -4088,7 +4192,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>7,691.02</t>
+          <t>7,718.37</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4097,10 +4201,10 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>27.35</v>
+        <v>136.75</v>
       </c>
       <c r="G108" t="n">
-        <v>-0.35</v>
+        <v>-1.74</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -4122,7 +4226,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>6,060.47</t>
+          <t>6,137.98</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4131,10 +4235,10 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>77.51000000000001</v>
+        <v>191.73</v>
       </c>
       <c r="G109" t="n">
-        <v>-1.26</v>
+        <v>-3.03</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -4156,7 +4260,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>5,491.05</t>
+          <t>5,628.86</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4165,10 +4269,10 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>137.81</v>
+        <v>115.76</v>
       </c>
       <c r="G110" t="n">
-        <v>-2.45</v>
+        <v>-2.02</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -4190,7 +4294,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>6,609.01</t>
+          <t>6,664.80</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4199,10 +4303,10 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>55.79</v>
+        <v>117.71</v>
       </c>
       <c r="G111" t="n">
-        <v>-0.84</v>
+        <v>-1.74</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -4224,7 +4328,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>5,453.72</t>
+          <t>5,506.96</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4233,10 +4337,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>53.24</v>
+        <v>106.44</v>
       </c>
       <c r="G112" t="n">
-        <v>-0.97</v>
+        <v>-1.9</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -4258,7 +4362,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>3,925.68</t>
+          <t>3,928.63</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4267,10 +4371,10 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>2.95</v>
+        <v>52.34</v>
       </c>
       <c r="G113" t="n">
-        <v>-0.08</v>
+        <v>-1.31</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -4292,7 +4396,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>3,910.67</t>
+          <t>4,028.45</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4301,10 +4405,10 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>117.78</v>
+        <v>116.43</v>
       </c>
       <c r="G114" t="n">
-        <v>-2.92</v>
+        <v>-2.81</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -4326,7 +4430,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>3,967.86</t>
+          <t>4,091.52</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4335,10 +4439,10 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>123.66</v>
+        <v>108.71</v>
       </c>
       <c r="G115" t="n">
-        <v>-3.02</v>
+        <v>-2.59</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -4360,7 +4464,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>4,372.24</t>
+          <t>4,402.33</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4369,10 +4473,10 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>30.09</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="G116" t="n">
-        <v>-0.68</v>
+        <v>-1.49</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -4394,19 +4498,19 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>4,661.85</t>
+          <t>4,645.81</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>16.04</v>
+        <v>49.72</v>
       </c>
       <c r="G117" t="n">
-        <v>0.35</v>
+        <v>-1.06</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
@@ -4428,7 +4532,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>5,536.77</t>
+          <t>5,685.53</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4437,10 +4541,10 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>148.76</v>
+        <v>138.78</v>
       </c>
       <c r="G118" t="n">
-        <v>-2.62</v>
+        <v>-2.38</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -4462,19 +4566,19 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>4,947.17</t>
+          <t>4,913.98</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>33.19</v>
+        <v>64.48999999999999</v>
       </c>
       <c r="G119" t="n">
-        <v>0.68</v>
+        <v>-1.3</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -4496,7 +4600,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>5,062.89</t>
+          <t>5,190.01</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4505,10 +4609,10 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>127.12</v>
+        <v>118.21</v>
       </c>
       <c r="G120" t="n">
-        <v>-2.45</v>
+        <v>-2.23</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>

--- a/專題/merge.xlsx
+++ b/專題/merge.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16,857.60</t>
+          <t>16,715.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -492,17 +492,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>285.74</t>
-        </is>
+      <c r="F2" t="n">
+        <v>102.26</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.67</v>
+        <v>-0.61</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -520,7 +518,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14,728.88</t>
+          <t>14,612.59</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -528,17 +526,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>251.86</t>
-        </is>
+      <c r="F3" t="n">
+        <v>92.84</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.68</v>
+        <v>-0.63</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -556,7 +552,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8,418.23</t>
+          <t>8,352.25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -564,17 +560,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>151.21</t>
-        </is>
+      <c r="F4" t="n">
+        <v>62.18</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.76</v>
+        <v>-0.74</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -592,7 +586,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11,261.19</t>
+          <t>11,175.49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -600,17 +594,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>211.35</t>
-        </is>
+      <c r="F5" t="n">
+        <v>90.53</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.84</v>
+        <v>-0.8</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -628,7 +620,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10,720.90</t>
+          <t>10,634.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -636,17 +628,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>187.19</t>
-        </is>
+      <c r="F6" t="n">
+        <v>67.8</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.72</v>
+        <v>-0.63</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -664,7 +654,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12,972.90</t>
+          <t>12,859.12</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -672,17 +662,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>174.59</t>
-        </is>
+      <c r="F7" t="n">
+        <v>55.5</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.33</v>
+        <v>-0.43</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -700,7 +688,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>19,312.86</t>
+          <t>19,106.21</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -708,17 +696,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>417.99</t>
-        </is>
+      <c r="F8" t="n">
+        <v>189.7</v>
       </c>
       <c r="G8" t="n">
-        <v>-2.12</v>
+        <v>-0.98</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -736,7 +722,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9,644.65</t>
+          <t>9,573.57</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -744,17 +730,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>108.57</t>
-        </is>
+      <c r="F9" t="n">
+        <v>45.12</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.11</v>
+        <v>-0.47</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -772,7 +756,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5,976.36</t>
+          <t>5,956.98</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -780,17 +764,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>81.85</t>
-        </is>
+      <c r="F10" t="n">
+        <v>4.34</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.35</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -808,7 +790,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9,072.62</t>
+          <t>8,986.04</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -816,17 +798,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>138.40</t>
-        </is>
+      <c r="F11" t="n">
+        <v>39.43</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.5</v>
+        <v>-0.44</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -844,7 +824,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8,062.73</t>
+          <t>8,026.45</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -852,17 +832,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>129.90</t>
-        </is>
+      <c r="F12" t="n">
+        <v>24.64</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.59</v>
+        <v>-0.31</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -880,7 +858,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12,669.78</t>
+          <t>12,546.69</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -888,17 +866,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>225.55</t>
-        </is>
+      <c r="F13" t="n">
+        <v>91.78</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.75</v>
+        <v>-0.73</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -916,7 +892,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>17,200.35</t>
+          <t>17,155.32</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -924,17 +900,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>210.83</t>
-        </is>
+      <c r="F14" t="n">
+        <v>67.08</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.21</v>
+        <v>-0.39</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -952,7 +926,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14,341.43</t>
+          <t>14,254.03</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -960,17 +934,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>177.40</t>
-        </is>
+      <c r="F15" t="n">
+        <v>83.73999999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.22</v>
+        <v>-0.58</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -988,7 +960,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8,265.32</t>
+          <t>8,203.27</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -996,17 +968,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>133.04</t>
-        </is>
+      <c r="F16" t="n">
+        <v>23.99</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.58</v>
+        <v>-0.29</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1024,25 +994,23 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>607.85</t>
+          <t>614.15</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>0.73</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.5</v>
+        <v>0.12</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1028,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>833.24</t>
+          <t>821.78</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1068,17 +1036,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>12.73</t>
-        </is>
+      <c r="F18" t="n">
+        <v>4.18</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.5</v>
+        <v>-0.51</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1062,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3,839.88</t>
+          <t>3,795.89</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1104,17 +1070,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>76.27</t>
-        </is>
+      <c r="F19" t="n">
+        <v>29.62</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.95</v>
+        <v>-0.77</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1132,25 +1096,23 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>153.31</t>
+          <t>154.59</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0.28</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.73</v>
+        <v>0.18</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1168,7 +1130,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1,785.59</t>
+          <t>1,802.18</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1176,17 +1138,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>24.27</t>
-        </is>
+      <c r="F21" t="n">
+        <v>5.28</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.34</v>
+        <v>-0.29</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1164,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>245.37</t>
+          <t>239.87</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1212,17 +1172,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
+      <c r="F22" t="n">
+        <v>1.36</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.36</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1240,7 +1198,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>584.16</t>
+          <t>585.85</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1248,17 +1206,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
+      <c r="F23" t="n">
+        <v>4.24</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.32</v>
+        <v>-0.72</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1276,7 +1232,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>229.14</t>
+          <t>226.08</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1284,17 +1240,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
+      <c r="F24" t="n">
+        <v>1.24</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.46</v>
+        <v>-0.55</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1312,25 +1266,23 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>107.61</t>
+          <t>106.01</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0.52</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.47</v>
+        <v>0.49</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1348,7 +1300,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>116.29</t>
+          <t>116.67</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1356,17 +1308,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
+      <c r="F26" t="n">
+        <v>0.46</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.93</v>
+        <v>-0.39</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1384,7 +1334,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>128.93</t>
+          <t>128.38</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1392,17 +1342,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
+      <c r="F27" t="n">
+        <v>1.1</v>
       </c>
       <c r="G27" t="n">
-        <v>-1.57</v>
+        <v>-0.85</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1420,25 +1368,23 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>71.47</t>
+          <t>72.20</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.02</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.26</v>
+        <v>0.03</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1456,25 +1402,23 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>62.16</t>
+          <t>63.45</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.12</v>
       </c>
       <c r="G29" t="n">
-        <v>0.71</v>
+        <v>-0.19</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1492,7 +1436,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>297.97</t>
+          <t>293.41</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1500,17 +1444,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>6.73</t>
-        </is>
+      <c r="F30" t="n">
+        <v>1.45</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.21</v>
+        <v>-0.49</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1528,7 +1470,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>137.35</t>
+          <t>136.54</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1536,17 +1478,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
+      <c r="F31" t="n">
+        <v>0.68</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.93</v>
+        <v>-0.5</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1504,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>235.89</t>
+          <t>234.96</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1572,17 +1512,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
+      <c r="F32" t="n">
+        <v>1.04</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.26</v>
+        <v>-0.44</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1600,7 +1538,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>344.00</t>
+          <t>337.29</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1608,17 +1546,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
+      <c r="F33" t="n">
+        <v>0.61</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.86</v>
+        <v>-0.18</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1572,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>684.98</t>
+          <t>677.18</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1644,17 +1580,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>13.90</t>
-        </is>
+      <c r="F34" t="n">
+        <v>5.41</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.99</v>
+        <v>-0.79</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1672,7 +1606,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>323.04</t>
+          <t>319.67</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1680,17 +1614,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>7.81</t>
-        </is>
+      <c r="F35" t="n">
+        <v>4.07</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.36</v>
+        <v>-1.26</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1708,25 +1640,15 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>124.10</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>-1.14</v>
-      </c>
+          <t>123.67</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1744,7 +1666,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>34.22</t>
+          <t>33.46</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1752,17 +1674,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
+      <c r="F37" t="n">
+        <v>0.09</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.55</v>
+        <v>-0.27</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1780,25 +1700,23 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>125.80</t>
+          <t>126.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.33</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.74</v>
+        <v>0.26</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1734,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>167.80</t>
+          <t>162.90</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1824,17 +1742,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
+      <c r="F39" t="n">
+        <v>0.09</v>
       </c>
       <c r="G39" t="n">
-        <v>-1.32</v>
+        <v>-0.06</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1852,7 +1768,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>171.70</t>
+          <t>170.78</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1860,17 +1776,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
+      <c r="F40" t="n">
+        <v>0.9</v>
       </c>
       <c r="G40" t="n">
-        <v>-1.25</v>
+        <v>-0.52</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1888,25 +1802,23 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>122.17</t>
+          <t>123.32</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1.27</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.45</v>
+        <v>1.04</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1924,7 +1836,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>97.61</t>
+          <t>96.52</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1932,17 +1844,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
+      <c r="F42" t="n">
+        <v>0.16</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.22</v>
+        <v>-0.17</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1960,7 +1870,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>349.77</t>
+          <t>349.61</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1968,17 +1878,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
+      <c r="F43" t="n">
+        <v>1.36</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.08</v>
+        <v>-0.39</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1996,7 +1904,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>156.75</t>
+          <t>157.55</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2004,17 +1912,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
+      <c r="F44" t="n">
+        <v>1.37</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.14</v>
+        <v>-0.86</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2032,25 +1938,23 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>116.60</t>
+          <t>116.45</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.97</v>
       </c>
       <c r="G45" t="n">
-        <v>0.51</v>
+        <v>-0.83</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2068,25 +1972,23 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1,518.40</t>
+          <t>1,526.47</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>18.22</t>
-        </is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.8</v>
       </c>
       <c r="G46" t="n">
-        <v>-1.19</v>
+        <v>0.05</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2104,7 +2006,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>276.55</t>
+          <t>280.58</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2112,17 +2014,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>3.76</t>
-        </is>
+      <c r="F47" t="n">
+        <v>2.56</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.34</v>
+        <v>-0.9</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2140,7 +2040,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>109.24</t>
+          <t>106.59</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2148,17 +2048,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
+      <c r="F48" t="n">
+        <v>0.49</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.04</v>
+        <v>-0.46</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2074,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>357.93</t>
+          <t>355.66</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2184,17 +2082,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
+      <c r="F49" t="n">
+        <v>4.21</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.47</v>
+        <v>-1.17</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2212,7 +2108,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>27,161.08</t>
+          <t>26,727.95</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2220,17 +2116,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>945.05</t>
-        </is>
+      <c r="F50" t="n">
+        <v>341.8</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.36</v>
+        <v>-1.26</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2142,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4,652.02</t>
+          <t>4,688.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2256,17 +2150,15 @@
           <t>+</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>76.92</t>
-        </is>
+      <c r="F51" t="n">
+        <v>29.41</v>
       </c>
       <c r="G51" t="n">
-        <v>1.68</v>
+        <v>0.63</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2284,7 +2176,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>25,814.83</t>
+          <t>25,220.24</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2292,17 +2184,15 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>1,069.40</t>
-        </is>
+      <c r="F52" t="n">
+        <v>406.21</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.98</v>
+        <v>-1.59</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2320,7 +2210,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4,195.52</t>
+          <t>4,242.16</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2328,17 +2218,15 @@
           <t>+</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>81.82</t>
-        </is>
+      <c r="F53" t="n">
+        <v>33.36</v>
       </c>
       <c r="G53" t="n">
-        <v>1.99</v>
+        <v>0.79</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>111年12月06日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2244,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4,480.53</t>
+          <t>4,426.82</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2365,10 +2253,10 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>99.08</v>
+        <v>44.29</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.16</v>
+        <v>-0.99</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2390,7 +2278,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>6,781.33</t>
+          <t>6,766.97</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2399,10 +2287,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>138.78</v>
+        <v>43.29</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.01</v>
+        <v>-0.64</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2424,7 +2312,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4,869.27</t>
+          <t>4,696.81</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2433,10 +2321,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>127.59</v>
+        <v>70.15000000000001</v>
       </c>
       <c r="G56" t="n">
-        <v>-2.55</v>
+        <v>-1.47</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2458,19 +2346,19 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3,416.33</t>
+          <t>3,435.60</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>15.83</v>
+        <v>7.45</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.46</v>
+        <v>0.22</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2492,7 +2380,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>7,462.81</t>
+          <t>7,334.68</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2501,10 +2389,10 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>134.76</v>
+        <v>50.5</v>
       </c>
       <c r="G58" t="n">
-        <v>-1.77</v>
+        <v>-0.68</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2526,19 +2414,19 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>7,915.39</t>
+          <t>7,920.31</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>112.03</v>
+        <v>0.42</v>
       </c>
       <c r="G59" t="n">
-        <v>-1.4</v>
+        <v>0.01</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2560,7 +2448,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5,709.86</t>
+          <t>5,625.73</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2569,10 +2457,10 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>65.59999999999999</v>
+        <v>12.73</v>
       </c>
       <c r="G60" t="n">
-        <v>-1.14</v>
+        <v>-0.23</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2594,7 +2482,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>5,565.60</t>
+          <t>5,483.21</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2603,10 +2491,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>108.71</v>
+        <v>38.39</v>
       </c>
       <c r="G61" t="n">
-        <v>-1.92</v>
+        <v>-0.7</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2628,7 +2516,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4,996.26</t>
+          <t>4,954.39</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2637,10 +2525,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>87.72</v>
+        <v>33.05</v>
       </c>
       <c r="G62" t="n">
-        <v>-1.73</v>
+        <v>-0.66</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2662,7 +2550,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>4,690.22</t>
+          <t>4,605.42</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2671,10 +2559,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>119.21</v>
+        <v>51.03</v>
       </c>
       <c r="G63" t="n">
-        <v>-2.48</v>
+        <v>-1.1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2696,7 +2584,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4,128.33</t>
+          <t>4,066.48</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2705,10 +2593,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>71.20999999999999</v>
+        <v>29.1</v>
       </c>
       <c r="G64" t="n">
-        <v>-1.7</v>
+        <v>-0.71</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2730,7 +2618,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3,910.47</t>
+          <t>3,808.10</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2739,10 +2627,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>82.45</v>
+        <v>8.52</v>
       </c>
       <c r="G65" t="n">
-        <v>-2.06</v>
+        <v>-0.22</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2764,7 +2652,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>4,465.39</t>
+          <t>4,406.70</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2773,10 +2661,10 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>83.94</v>
+        <v>42.78</v>
       </c>
       <c r="G66" t="n">
-        <v>-1.85</v>
+        <v>-0.96</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2798,7 +2686,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4,327.33</t>
+          <t>4,277.93</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2807,10 +2695,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>63.44</v>
+        <v>22.14</v>
       </c>
       <c r="G67" t="n">
-        <v>-1.44</v>
+        <v>-0.51</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2832,7 +2720,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>4,174.35</t>
+          <t>4,111.17</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2841,10 +2729,10 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>75.55</v>
+        <v>30.87</v>
       </c>
       <c r="G68" t="n">
-        <v>-1.78</v>
+        <v>-0.75</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -2866,7 +2754,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3,711.01</t>
+          <t>3,647.49</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2875,10 +2763,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>94.16</v>
+        <v>41.86</v>
       </c>
       <c r="G69" t="n">
-        <v>-2.47</v>
+        <v>-1.13</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2900,7 +2788,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3,765.85</t>
+          <t>3,739.50</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2909,10 +2797,10 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>67.16</v>
+        <v>0.73</v>
       </c>
       <c r="G70" t="n">
-        <v>-1.75</v>
+        <v>-0.02</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -2934,7 +2822,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4,438.50</t>
+          <t>4,404.66</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2943,10 +2831,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>81.20999999999999</v>
+        <v>20.04</v>
       </c>
       <c r="G71" t="n">
-        <v>-1.8</v>
+        <v>-0.45</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2968,7 +2856,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>4,165.31</t>
+          <t>4,144.55</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2977,10 +2865,10 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>59.34</v>
+        <v>16.42</v>
       </c>
       <c r="G72" t="n">
-        <v>-1.4</v>
+        <v>-0.39</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -3002,7 +2890,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2,746.68</t>
+          <t>2,687.43</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3011,10 +2899,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>113.36</v>
+        <v>22.11</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.96</v>
+        <v>-0.82</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -3036,7 +2924,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3,989.13</t>
+          <t>3,963.28</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3045,10 +2933,10 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>74.55</v>
+        <v>5.03</v>
       </c>
       <c r="G74" t="n">
-        <v>-1.83</v>
+        <v>-0.13</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -3070,7 +2958,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3,874.58</t>
+          <t>3,838.39</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3079,10 +2967,10 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>70.90000000000001</v>
+        <v>27.91</v>
       </c>
       <c r="G75" t="n">
-        <v>-1.8</v>
+        <v>-0.72</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -3104,7 +2992,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3,649.39</t>
+          <t>3,622.29</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3113,10 +3001,10 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>70.76000000000001</v>
+        <v>3.66</v>
       </c>
       <c r="G76" t="n">
-        <v>-1.9</v>
+        <v>-0.1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3138,7 +3026,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3,268.87</t>
+          <t>3,212.23</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3147,10 +3035,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>97.97</v>
+        <v>41.49</v>
       </c>
       <c r="G77" t="n">
-        <v>-2.91</v>
+        <v>-1.28</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3172,7 +3060,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4,757.05</t>
+          <t>4,704.03</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3181,10 +3069,10 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>26.02</v>
+        <v>12.56</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.54</v>
+        <v>-0.27</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3206,7 +3094,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>3,820.51</t>
+          <t>3,781.02</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3215,10 +3103,10 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>98.68000000000001</v>
+        <v>19.24</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.52</v>
+        <v>-0.51</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -3240,7 +3128,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3,701.09</t>
+          <t>3,654.52</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3249,10 +3137,10 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>92.34</v>
+        <v>18.28</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.43</v>
+        <v>-0.5</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3274,7 +3162,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>4,020.25</t>
+          <t>3,805.41</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3283,10 +3171,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>45.68</v>
+        <v>18.84</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.12</v>
+        <v>-0.49</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3308,7 +3196,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4,285.90</t>
+          <t>4,214.89</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3317,10 +3205,10 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>109.72</v>
+        <v>29.96</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.5</v>
+        <v>-0.71</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3342,7 +3230,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>3,720.21</t>
+          <t>3,680.52</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3351,10 +3239,10 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>72.73</v>
+        <v>22.13</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.92</v>
+        <v>-0.6</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -3376,7 +3264,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4,744.13</t>
+          <t>4,714.06</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3385,10 +3273,10 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>57.58</v>
+        <v>8.42</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.2</v>
+        <v>-0.18</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -3410,19 +3298,19 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4,364.52</t>
+          <t>4,352.54</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>89.18000000000001</v>
+        <v>10.12</v>
       </c>
       <c r="G85" t="n">
-        <v>-2</v>
+        <v>0.23</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -3444,7 +3332,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5,253.86</t>
+          <t>5,218.14</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3453,10 +3341,10 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>65.86</v>
+        <v>48.37</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.24</v>
+        <v>-0.92</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -3478,19 +3366,19 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>25,477.44</t>
+          <t>25,745.72</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>618.86</v>
+        <v>26.97</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.37</v>
+        <v>0.1</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -3512,19 +3400,19 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>5,028.74</t>
+          <t>5,001.52</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>58.93</v>
+        <v>2.62</v>
       </c>
       <c r="G88" t="n">
-        <v>1.19</v>
+        <v>-0.05</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -3546,7 +3434,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>7,751.92</t>
+          <t>7,671.32</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3555,10 +3443,10 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>121.27</v>
+        <v>22.55</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.54</v>
+        <v>-0.29</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -3580,7 +3468,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>7,223.39</t>
+          <t>7,133.12</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3589,10 +3477,10 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>118.88</v>
+        <v>53.93</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.62</v>
+        <v>-0.75</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -3614,7 +3502,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>7,724.03</t>
+          <t>7,596.20</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3623,10 +3511,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>146.2</v>
+        <v>67.29000000000001</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.86</v>
+        <v>-0.88</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -3648,7 +3536,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>7,571.93</t>
+          <t>7,451.26</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3657,10 +3545,10 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>155.45</v>
+        <v>34.33</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.01</v>
+        <v>-0.46</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -3682,7 +3570,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>6,302.03</t>
+          <t>6,333.53</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3691,11 +3579,9 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>65.31999999999999</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-1.03</v>
-      </c>
+        <v>0.12</v>
+      </c>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3716,7 +3602,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>14,423.10</t>
+          <t>14,402.81</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3725,10 +3611,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>259.89</v>
+        <v>132.94</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.77</v>
+        <v>-0.91</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -3750,19 +3636,19 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>6,574.42</t>
+          <t>6,553.73</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>84</v>
+        <v>4.82</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.26</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -3784,7 +3670,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>7,506.96</t>
+          <t>7,457.37</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3793,10 +3679,10 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>120.71</v>
+        <v>46.87</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.58</v>
+        <v>-0.62</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -3818,7 +3704,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>5,734.34</t>
+          <t>5,729.52</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3827,10 +3713,10 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>41.62</v>
+        <v>21.16</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.72</v>
+        <v>-0.37</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -3852,7 +3738,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>5,622.29</t>
+          <t>5,536.53</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3861,10 +3747,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>175.4</v>
+        <v>22.63</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.03</v>
+        <v>-0.41</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -3886,7 +3772,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>6,609.01</t>
+          <t>6,523.36</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3895,10 +3781,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>131.26</v>
+        <v>10.32</v>
       </c>
       <c r="G99" t="n">
-        <v>-1.95</v>
+        <v>-0.16</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -3920,7 +3806,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>6,778.75</t>
+          <t>6,631.29</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3929,10 +3815,10 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>81.61</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G100" t="n">
-        <v>-1.19</v>
+        <v>-0.14</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -3954,7 +3840,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>8,322.75</t>
+          <t>8,251.81</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3963,10 +3849,10 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>126.58</v>
+        <v>41.26</v>
       </c>
       <c r="G101" t="n">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -3988,19 +3874,19 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>5,631.57</t>
+          <t>5,672.44</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>44.2</v>
+        <v>10.61</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.78</v>
+        <v>0.19</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -4022,7 +3908,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>7,598.05</t>
+          <t>7,536.48</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4031,10 +3917,10 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>129.09</v>
+        <v>46.08</v>
       </c>
       <c r="G103" t="n">
-        <v>-1.67</v>
+        <v>-0.61</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -4056,19 +3942,19 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>7,072.57</t>
+          <t>7,058.41</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>88.45999999999999</v>
+        <v>4.92</v>
       </c>
       <c r="G104" t="n">
-        <v>-1.24</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -4090,19 +3976,19 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>6,168.22</t>
+          <t>6,205.21</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>45.51</v>
+        <v>19.5</v>
       </c>
       <c r="G105" t="n">
-        <v>-0.73</v>
+        <v>0.32</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -4124,7 +4010,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>5,924.49</t>
+          <t>5,839.61</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4133,10 +4019,10 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>61.24</v>
+        <v>33.15</v>
       </c>
       <c r="G106" t="n">
-        <v>-1.02</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -4158,7 +4044,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>4,707.49</t>
+          <t>4,708.23</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4167,10 +4053,10 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>92.08</v>
+        <v>24.03</v>
       </c>
       <c r="G107" t="n">
-        <v>-1.92</v>
+        <v>-0.51</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -4192,7 +4078,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>7,718.37</t>
+          <t>7,668.93</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4201,10 +4087,10 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>136.75</v>
+        <v>66.27</v>
       </c>
       <c r="G108" t="n">
-        <v>-1.74</v>
+        <v>-0.86</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -4226,7 +4112,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>6,137.98</t>
+          <t>6,082.84</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4235,10 +4121,10 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>191.73</v>
+        <v>26.45</v>
       </c>
       <c r="G109" t="n">
-        <v>-3.03</v>
+        <v>-0.43</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -4260,7 +4146,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>5,628.86</t>
+          <t>5,501.35</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4269,10 +4155,10 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>115.76</v>
+        <v>28.3</v>
       </c>
       <c r="G110" t="n">
-        <v>-2.02</v>
+        <v>-0.51</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -4294,7 +4180,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>6,664.80</t>
+          <t>6,579.54</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4303,10 +4189,10 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>117.71</v>
+        <v>53.6</v>
       </c>
       <c r="G111" t="n">
-        <v>-1.74</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -4328,7 +4214,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>5,506.96</t>
+          <t>5,438.73</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4337,10 +4223,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>106.44</v>
+        <v>38.08</v>
       </c>
       <c r="G112" t="n">
-        <v>-1.9</v>
+        <v>-0.7</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -4362,7 +4248,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>3,928.63</t>
+          <t>3,926.26</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4371,10 +4257,10 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>52.34</v>
+        <v>12.93</v>
       </c>
       <c r="G113" t="n">
-        <v>-1.31</v>
+        <v>-0.33</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -4396,7 +4282,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>4,028.45</t>
+          <t>3,892.04</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4405,10 +4291,10 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>116.43</v>
+        <v>12.22</v>
       </c>
       <c r="G114" t="n">
-        <v>-2.81</v>
+        <v>-0.31</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -4430,7 +4316,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>4,091.52</t>
+          <t>3,979.51</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4439,10 +4325,10 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>108.71</v>
+        <v>12.94</v>
       </c>
       <c r="G115" t="n">
-        <v>-2.59</v>
+        <v>-0.32</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -4464,7 +4350,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>4,402.33</t>
+          <t>4,372.78</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4473,10 +4359,10 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>66.59999999999999</v>
+        <v>2.14</v>
       </c>
       <c r="G116" t="n">
-        <v>-1.49</v>
+        <v>-0.05</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -4498,7 +4384,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>4,645.81</t>
+          <t>4,648.90</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4507,10 +4393,10 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>49.72</v>
+        <v>12.83</v>
       </c>
       <c r="G117" t="n">
-        <v>-1.06</v>
+        <v>-0.28</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
@@ -4532,7 +4418,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>5,685.53</t>
+          <t>5,538.17</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4541,10 +4427,10 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>138.78</v>
+        <v>13.59</v>
       </c>
       <c r="G118" t="n">
-        <v>-2.38</v>
+        <v>-0.24</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -4566,19 +4452,19 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>4,913.98</t>
+          <t>4,936.72</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>64.48999999999999</v>
+        <v>10.51</v>
       </c>
       <c r="G119" t="n">
-        <v>-1.3</v>
+        <v>0.21</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -4600,7 +4486,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>5,190.01</t>
+          <t>5,077.74</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4609,10 +4495,10 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>118.21</v>
+        <v>25.54</v>
       </c>
       <c r="G120" t="n">
-        <v>-2.23</v>
+        <v>-0.5</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>

--- a/專題/merge.xlsx
+++ b/專題/merge.xlsx
@@ -484,7 +484,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16,715.37</t>
+          <t>16,612.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -493,14 +493,14 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>102.26</v>
+        <v>102.42</v>
       </c>
       <c r="G2" t="n">
         <v>-0.61</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14,612.59</t>
+          <t>14,522.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -527,14 +527,14 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>92.84</v>
+        <v>89.63</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.63</v>
+        <v>-0.61</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8,352.25</t>
+          <t>8,293.37</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -561,14 +561,14 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>62.18</v>
+        <v>58.88</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.74</v>
+        <v>-0.7</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11,175.49</t>
+          <t>11,092.49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -595,14 +595,14 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>90.53</v>
+        <v>83</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.8</v>
+        <v>-0.74</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -620,7 +620,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10,634.91</t>
+          <t>10,555.73</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -629,14 +629,14 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>67.8</v>
+        <v>79.18000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.63</v>
+        <v>-0.74</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12,859.12</t>
+          <t>12,772.14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -663,14 +663,14 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>55.5</v>
+        <v>86.98</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.43</v>
+        <v>-0.68</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>19,106.21</t>
+          <t>18,966.42</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -697,14 +697,14 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>189.7</v>
+        <v>139.79</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.98</v>
+        <v>-0.73</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9,573.57</t>
+          <t>9,510.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -731,14 +731,14 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>45.12</v>
+        <v>63.57</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.47</v>
+        <v>-0.66</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -756,7 +756,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5,956.98</t>
+          <t>5,947.38</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -765,14 +765,14 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.34</v>
+        <v>9.6</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.16</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -790,7 +790,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8,986.04</t>
+          <t>8,912.93</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -799,14 +799,14 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>39.43</v>
+        <v>73.11</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.44</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8,026.45</t>
+          <t>7,980.33</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -833,14 +833,14 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>24.64</v>
+        <v>46.12</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.31</v>
+        <v>-0.57</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12,546.69</t>
+          <t>12,472.38</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -867,14 +867,14 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>91.78</v>
+        <v>74.31</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.73</v>
+        <v>-0.59</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>17,155.32</t>
+          <t>17,081.46</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -901,14 +901,14 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>67.08</v>
+        <v>73.86</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.39</v>
+        <v>-0.43</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14,254.03</t>
+          <t>14,213.75</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -935,14 +935,14 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>83.73999999999999</v>
+        <v>40.28</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.58</v>
+        <v>-0.28</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8,203.27</t>
+          <t>8,194.96</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -969,14 +969,14 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>23.99</v>
+        <v>8.31</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.29</v>
+        <v>-0.1</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -994,23 +994,23 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>614.15</t>
+          <t>612.28</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.73</v>
+        <v>1.87</v>
       </c>
       <c r="G17" t="n">
-        <v>0.12</v>
+        <v>-0.3</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>821.78</t>
+          <t>819.16</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1037,14 +1037,14 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4.18</v>
+        <v>2.62</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.51</v>
+        <v>-0.32</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3,795.89</t>
+          <t>3,769.01</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1071,14 +1071,14 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>29.62</v>
+        <v>26.88</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.77</v>
+        <v>-0.71</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1096,23 +1096,23 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>154.59</t>
+          <t>154.16</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.28</v>
+        <v>0.43</v>
       </c>
       <c r="G20" t="n">
-        <v>0.18</v>
+        <v>-0.28</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1,802.18</t>
+          <t>1,797.84</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1139,14 +1139,14 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5.28</v>
+        <v>4.34</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.29</v>
+        <v>-0.24</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>239.87</t>
+          <t>238.46</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1173,14 +1173,14 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.59</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>585.85</t>
+          <t>576.81</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1207,14 +1207,14 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.24</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.72</v>
+        <v>-1.54</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1232,23 +1232,21 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>226.08</t>
+          <t>226.09</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-0.55</v>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1264,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>106.01</t>
+          <t>106.26</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1275,14 +1273,14 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.52</v>
+        <v>0.25</v>
       </c>
       <c r="G25" t="n">
-        <v>0.49</v>
+        <v>0.24</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1300,23 +1298,23 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>116.67</t>
+          <t>117.31</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.39</v>
+        <v>0.55</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1332,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>128.38</t>
+          <t>128.21</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1343,14 +1341,14 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.1</v>
+        <v>0.17</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.85</v>
+        <v>-0.13</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1366,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>72.20</t>
+          <t>73.05</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1377,14 +1375,14 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.02</v>
+        <v>0.85</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03</v>
+        <v>1.18</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1402,7 +1400,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>63.45</t>
+          <t>63.16</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1411,14 +1409,14 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.12</v>
+        <v>0.29</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.19</v>
+        <v>-0.46</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1436,23 +1434,23 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>293.41</t>
+          <t>295.71</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.49</v>
+        <v>0.78</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1470,23 +1468,23 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>136.54</t>
+          <t>139.19</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.68</v>
+        <v>2.65</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.5</v>
+        <v>1.94</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1504,7 +1502,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>234.96</t>
+          <t>232.54</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1513,14 +1511,14 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.04</v>
+        <v>2.42</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.44</v>
+        <v>-1.03</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1538,7 +1536,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>337.29</t>
+          <t>332.54</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1547,14 +1545,14 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.61</v>
+        <v>4.75</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.18</v>
+        <v>-1.41</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1572,7 +1570,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>677.18</t>
+          <t>672.21</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1581,14 +1579,14 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5.41</v>
+        <v>4.97</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.79</v>
+        <v>-0.73</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1606,7 +1604,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>319.67</t>
+          <t>317.59</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1615,14 +1613,14 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4.07</v>
+        <v>2.08</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.26</v>
+        <v>-0.65</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1640,15 +1638,23 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>123.67</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
+          <t>123.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.35</v>
+      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1672,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>33.46</t>
+          <t>33.25</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1675,14 +1681,14 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.09</v>
+        <v>0.21</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.27</v>
+        <v>-0.63</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1700,23 +1706,23 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>126.00</t>
+          <t>124.67</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.33</v>
+        <v>1.33</v>
       </c>
       <c r="G38" t="n">
-        <v>0.26</v>
+        <v>-1.06</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1740,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>162.90</t>
+          <t>160.75</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1743,14 +1749,14 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.09</v>
+        <v>2.15</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.06</v>
+        <v>-1.32</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1768,7 +1774,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>170.78</t>
+          <t>169.90</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1777,14 +1783,14 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="G40" t="n">
         <v>-0.52</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1802,23 +1808,23 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>123.32</t>
+          <t>122.46</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.27</v>
+        <v>0.86</v>
       </c>
       <c r="G41" t="n">
-        <v>1.04</v>
+        <v>-0.7</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1842,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>96.52</t>
+          <t>95.69</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1845,14 +1851,14 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.16</v>
+        <v>0.83</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.17</v>
+        <v>-0.86</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1870,7 +1876,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>349.61</t>
+          <t>348.94</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1879,14 +1885,14 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.36</v>
+        <v>0.67</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.39</v>
+        <v>-0.19</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1904,23 +1910,23 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>157.55</t>
+          <t>158.40</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.37</v>
+        <v>0.85</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.86</v>
+        <v>0.54</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1944,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>116.45</t>
+          <t>115.75</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1947,14 +1953,14 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.97</v>
+        <v>0.7</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.83</v>
+        <v>-0.6</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1972,23 +1978,23 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1,526.47</t>
+          <t>1,514.80</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.8</v>
+        <v>11.67</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05</v>
+        <v>-0.76</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2006,7 +2012,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>280.58</t>
+          <t>278.18</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2015,14 +2021,14 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.9</v>
+        <v>-0.86</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2046,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>106.59</t>
+          <t>106.51</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2049,14 +2055,14 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.49</v>
+        <v>0.08</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.46</v>
+        <v>-0.08</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2074,7 +2080,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>355.66</t>
+          <t>351.12</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2083,14 +2089,14 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4.21</v>
+        <v>4.54</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.17</v>
+        <v>-1.28</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2108,7 +2114,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>26,727.95</t>
+          <t>26,400.06</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2117,14 +2123,14 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>341.8</v>
+        <v>327.89</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.26</v>
+        <v>-1.23</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2142,7 +2148,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4,688.00</t>
+          <t>4,716.76</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2151,14 +2157,14 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>29.41</v>
+        <v>28.76</v>
       </c>
       <c r="G51" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2176,7 +2182,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>25,220.24</t>
+          <t>24,850.04</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2185,14 +2191,14 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>406.21</v>
+        <v>370.2</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.59</v>
+        <v>-1.47</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2210,7 +2216,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4,242.16</t>
+          <t>4,273.29</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2219,14 +2225,14 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>33.36</v>
+        <v>31.13</v>
       </c>
       <c r="G53" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>111年12月12日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2244,19 +2250,19 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4,426.82</t>
+          <t>4,439.35</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>44.29</v>
+        <v>12.53</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.99</v>
+        <v>0.28</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2278,7 +2284,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>6,766.97</t>
+          <t>6,720.45</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2287,10 +2293,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>43.29</v>
+        <v>46.52</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.64</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -2312,7 +2318,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4,696.81</t>
+          <t>4,628.61</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2321,10 +2327,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>70.15000000000001</v>
+        <v>68.2</v>
       </c>
       <c r="G56" t="n">
-        <v>-1.47</v>
+        <v>-1.45</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -2346,19 +2352,19 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3,435.60</t>
+          <t>3,429.45</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>7.45</v>
+        <v>6.15</v>
       </c>
       <c r="G57" t="n">
-        <v>0.22</v>
+        <v>-0.18</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -2380,7 +2386,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>7,334.68</t>
+          <t>7,278.67</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2389,10 +2395,10 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>50.5</v>
+        <v>56.01</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.68</v>
+        <v>-0.76</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -2414,19 +2420,19 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>7,920.31</t>
+          <t>7,875.74</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.42</v>
+        <v>44.57</v>
       </c>
       <c r="G59" t="n">
-        <v>0.01</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -2448,7 +2454,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5,625.73</t>
+          <t>5,591.57</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2457,10 +2463,10 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>12.73</v>
+        <v>34.16</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.23</v>
+        <v>-0.61</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -2482,7 +2488,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>5,483.21</t>
+          <t>5,447.74</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2491,10 +2497,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>38.39</v>
+        <v>35.47</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.7</v>
+        <v>-0.65</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -2516,7 +2522,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4,954.39</t>
+          <t>4,922.11</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2525,10 +2531,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>33.05</v>
+        <v>32.28</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.66</v>
+        <v>-0.65</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2550,7 +2556,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>4,605.42</t>
+          <t>4,579.63</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2559,10 +2565,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>51.03</v>
+        <v>25.79</v>
       </c>
       <c r="G63" t="n">
-        <v>-1.1</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2584,7 +2590,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4,066.48</t>
+          <t>4,040.45</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2593,10 +2599,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>29.1</v>
+        <v>26.03</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.71</v>
+        <v>-0.64</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2618,7 +2624,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3,808.10</t>
+          <t>3,782.23</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2627,10 +2633,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>8.52</v>
+        <v>25.87</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.22</v>
+        <v>-0.68</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2652,7 +2658,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>4,406.70</t>
+          <t>4,360.16</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2661,10 +2667,10 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>42.78</v>
+        <v>46.54</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.96</v>
+        <v>-1.06</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2686,7 +2692,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4,277.93</t>
+          <t>4,253.28</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2695,10 +2701,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>22.14</v>
+        <v>24.65</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.51</v>
+        <v>-0.58</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2720,7 +2726,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>4,111.17</t>
+          <t>4,077.99</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2729,10 +2735,10 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>30.87</v>
+        <v>33.18</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.75</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -2754,7 +2760,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3,647.49</t>
+          <t>3,626.05</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2763,10 +2769,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>41.86</v>
+        <v>21.44</v>
       </c>
       <c r="G69" t="n">
-        <v>-1.13</v>
+        <v>-0.59</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2788,7 +2794,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3,739.50</t>
+          <t>3,720.57</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2797,10 +2803,10 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.73</v>
+        <v>18.93</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.02</v>
+        <v>-0.51</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -2822,7 +2828,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4,404.66</t>
+          <t>4,377.18</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2831,10 +2837,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>20.04</v>
+        <v>27.48</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.45</v>
+        <v>-0.62</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2856,7 +2862,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>4,144.55</t>
+          <t>4,113.10</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2865,10 +2871,10 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>16.42</v>
+        <v>31.45</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.39</v>
+        <v>-0.76</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -2890,7 +2896,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2,687.43</t>
+          <t>2,663.33</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2899,10 +2905,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>22.11</v>
+        <v>24.1</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.82</v>
+        <v>-0.9</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2924,19 +2930,19 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3,963.28</t>
+          <t>3,980.41</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>5.03</v>
+        <v>17.13</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.13</v>
+        <v>0.43</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -2958,7 +2964,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3,838.39</t>
+          <t>3,810.54</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2967,10 +2973,10 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>27.91</v>
+        <v>27.85</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.72</v>
+        <v>-0.73</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -2992,7 +2998,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3,622.29</t>
+          <t>3,604.41</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3001,10 +3007,10 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>3.66</v>
+        <v>17.88</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.1</v>
+        <v>-0.49</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3026,7 +3032,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3,212.23</t>
+          <t>3,180.31</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3035,10 +3041,10 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>41.49</v>
+        <v>31.92</v>
       </c>
       <c r="G77" t="n">
-        <v>-1.28</v>
+        <v>-0.99</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3060,7 +3066,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4,704.03</t>
+          <t>4,691.04</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3069,10 +3075,10 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>12.56</v>
+        <v>12.99</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.27</v>
+        <v>-0.28</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3094,7 +3100,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>3,781.02</t>
+          <t>3,752.49</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3103,10 +3109,10 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>19.24</v>
+        <v>28.53</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.51</v>
+        <v>-0.75</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -3128,7 +3134,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3,654.52</t>
+          <t>3,637.92</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3137,10 +3143,10 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>18.28</v>
+        <v>16.6</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5</v>
+        <v>-0.45</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3162,7 +3168,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>3,805.41</t>
+          <t>3,733.07</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3171,10 +3177,10 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>18.84</v>
+        <v>72.34</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.49</v>
+        <v>-1.9</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3196,7 +3202,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4,214.89</t>
+          <t>4,182.82</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3205,10 +3211,10 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>29.96</v>
+        <v>32.07</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.71</v>
+        <v>-0.76</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -3230,7 +3236,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>3,680.52</t>
+          <t>3,665.08</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3239,10 +3245,10 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>22.13</v>
+        <v>15.44</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.6</v>
+        <v>-0.42</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -3264,7 +3270,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4,714.06</t>
+          <t>4,686.57</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3273,10 +3279,10 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>8.42</v>
+        <v>27.49</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.18</v>
+        <v>-0.58</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -3298,19 +3304,19 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4,352.54</t>
+          <t>4,324.67</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>10.12</v>
+        <v>27.87</v>
       </c>
       <c r="G85" t="n">
-        <v>0.23</v>
+        <v>-0.64</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -3332,7 +3338,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5,218.14</t>
+          <t>5,181.49</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3341,10 +3347,10 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>48.37</v>
+        <v>36.65</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.92</v>
+        <v>-0.7</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -3366,19 +3372,19 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>25,745.72</t>
+          <t>25,352.06</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>26.97</v>
+        <v>393.66</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1</v>
+        <v>-1.53</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -3400,19 +3406,19 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>5,001.52</t>
+          <t>5,039.76</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2.62</v>
+        <v>38.24</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.05</v>
+        <v>0.76</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -3434,7 +3440,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>7,671.32</t>
+          <t>7,620.75</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3443,10 +3449,10 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>22.55</v>
+        <v>50.57</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.29</v>
+        <v>-0.66</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -3468,7 +3474,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>7,133.12</t>
+          <t>7,083.44</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3477,10 +3483,10 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>53.93</v>
+        <v>49.68</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.75</v>
+        <v>-0.7</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -3502,7 +3508,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>7,596.20</t>
+          <t>7,548.62</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3511,10 +3517,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>67.29000000000001</v>
+        <v>47.58</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.88</v>
+        <v>-0.63</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -3536,7 +3542,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>7,451.26</t>
+          <t>7,403.67</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3545,10 +3551,10 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>34.33</v>
+        <v>47.59</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.46</v>
+        <v>-0.64</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -3570,7 +3576,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>6,333.53</t>
+          <t>6,277.07</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3579,9 +3585,11 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="G93" t="inlineStr"/>
+        <v>56.46</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-0.89</v>
+      </c>
       <c r="H93" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3602,7 +3610,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>14,402.81</t>
+          <t>14,305.68</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3611,10 +3619,10 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>132.94</v>
+        <v>97.13</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.91</v>
+        <v>-0.67</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -3636,19 +3644,19 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>6,553.73</t>
+          <t>6,513.21</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>4.82</v>
+        <v>40.52</v>
       </c>
       <c r="G95" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.62</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -3670,7 +3678,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>7,457.37</t>
+          <t>7,401.68</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3679,10 +3687,10 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>46.87</v>
+        <v>55.69</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.62</v>
+        <v>-0.75</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -3704,7 +3712,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>5,729.52</t>
+          <t>5,691.60</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3713,10 +3721,10 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>21.16</v>
+        <v>37.92</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.37</v>
+        <v>-0.66</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -3738,7 +3746,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>5,536.53</t>
+          <t>5,517.22</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3747,10 +3755,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>22.63</v>
+        <v>19.31</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.41</v>
+        <v>-0.35</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -3772,7 +3780,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>6,523.36</t>
+          <t>6,491.72</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3781,10 +3789,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>10.32</v>
+        <v>31.64</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.16</v>
+        <v>-0.49</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -3806,7 +3814,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>6,631.29</t>
+          <t>6,556.96</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3815,10 +3823,10 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>9.199999999999999</v>
+        <v>74.33</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.14</v>
+        <v>-1.12</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -3840,7 +3848,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>8,251.81</t>
+          <t>8,203.09</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3849,10 +3857,10 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>41.26</v>
+        <v>48.72</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.5</v>
+        <v>-0.59</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -3874,19 +3882,19 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>5,672.44</t>
+          <t>5,649.77</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>10.61</v>
+        <v>22.67</v>
       </c>
       <c r="G102" t="n">
-        <v>0.19</v>
+        <v>-0.4</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -3908,7 +3916,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>7,536.48</t>
+          <t>7,488.25</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3917,10 +3925,10 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>46.08</v>
+        <v>48.23</v>
       </c>
       <c r="G103" t="n">
-        <v>-0.61</v>
+        <v>-0.64</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
@@ -3942,19 +3950,19 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>7,058.41</t>
+          <t>7,015.56</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>4.92</v>
+        <v>42.85</v>
       </c>
       <c r="G104" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.61</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
@@ -3976,19 +3984,19 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>6,205.21</t>
+          <t>6,136.92</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>19.5</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="G105" t="n">
-        <v>0.32</v>
+        <v>-1.1</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
@@ -4010,7 +4018,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>5,839.61</t>
+          <t>5,777.56</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4019,10 +4027,10 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>33.15</v>
+        <v>62.05</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-1.06</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
@@ -4044,7 +4052,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>4,708.23</t>
+          <t>4,683.04</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4053,10 +4061,10 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>24.03</v>
+        <v>25.19</v>
       </c>
       <c r="G107" t="n">
-        <v>-0.51</v>
+        <v>-0.54</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
@@ -4078,7 +4086,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>7,668.93</t>
+          <t>7,636.32</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4087,10 +4095,10 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>66.27</v>
+        <v>32.61</v>
       </c>
       <c r="G108" t="n">
-        <v>-0.86</v>
+        <v>-0.43</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
@@ -4112,7 +4120,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>6,082.84</t>
+          <t>6,076.49</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4121,10 +4129,10 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>26.45</v>
+        <v>6.35</v>
       </c>
       <c r="G109" t="n">
-        <v>-0.43</v>
+        <v>-0.1</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
@@ -4146,7 +4154,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>5,501.35</t>
+          <t>5,429.38</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4155,10 +4163,10 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>28.3</v>
+        <v>71.97</v>
       </c>
       <c r="G110" t="n">
-        <v>-0.51</v>
+        <v>-1.31</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
@@ -4180,7 +4188,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>6,579.54</t>
+          <t>6,547.05</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4189,10 +4197,10 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>53.6</v>
+        <v>32.49</v>
       </c>
       <c r="G111" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-0.49</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
@@ -4214,7 +4222,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>5,438.73</t>
+          <t>5,409.84</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4223,10 +4231,10 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>38.08</v>
+        <v>28.89</v>
       </c>
       <c r="G112" t="n">
-        <v>-0.7</v>
+        <v>-0.53</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -4248,7 +4256,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>3,926.26</t>
+          <t>3,907.59</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4257,10 +4265,10 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>12.93</v>
+        <v>18.67</v>
       </c>
       <c r="G113" t="n">
-        <v>-0.33</v>
+        <v>-0.48</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -4282,7 +4290,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>3,892.04</t>
+          <t>3,830.27</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4291,10 +4299,10 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>12.22</v>
+        <v>61.77</v>
       </c>
       <c r="G114" t="n">
-        <v>-0.31</v>
+        <v>-1.59</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -4316,7 +4324,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>3,979.51</t>
+          <t>3,916.41</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4325,10 +4333,10 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>12.94</v>
+        <v>63.1</v>
       </c>
       <c r="G115" t="n">
-        <v>-0.32</v>
+        <v>-1.59</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -4350,7 +4358,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>4,372.78</t>
+          <t>4,343.05</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4359,10 +4367,10 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>2.14</v>
+        <v>29.73</v>
       </c>
       <c r="G116" t="n">
-        <v>-0.05</v>
+        <v>-0.68</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -4384,7 +4392,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>4,648.90</t>
+          <t>4,607.07</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4393,10 +4401,10 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>12.83</v>
+        <v>41.83</v>
       </c>
       <c r="G117" t="n">
-        <v>-0.28</v>
+        <v>-0.9</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
@@ -4418,7 +4426,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>5,538.17</t>
+          <t>5,466.48</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4427,10 +4435,10 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>13.59</v>
+        <v>71.69</v>
       </c>
       <c r="G118" t="n">
-        <v>-0.24</v>
+        <v>-1.29</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -4452,19 +4460,19 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>4,936.72</t>
+          <t>4,894.75</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>10.51</v>
+        <v>41.97</v>
       </c>
       <c r="G119" t="n">
-        <v>0.21</v>
+        <v>-0.85</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -4486,7 +4494,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>5,077.74</t>
+          <t>5,007.33</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4495,10 +4503,10 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>25.54</v>
+        <v>70.41</v>
       </c>
       <c r="G120" t="n">
-        <v>-0.5</v>
+        <v>-1.39</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>

--- a/專題/merge.xlsx
+++ b/專題/merge.xlsx
@@ -495,9 +495,7 @@
       <c r="F2" t="n">
         <v>102.42</v>
       </c>
-      <c r="G2" t="n">
-        <v>-0.61</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -529,9 +527,7 @@
       <c r="F3" t="n">
         <v>89.63</v>
       </c>
-      <c r="G3" t="n">
-        <v>-0.61</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -563,9 +559,7 @@
       <c r="F4" t="n">
         <v>58.88</v>
       </c>
-      <c r="G4" t="n">
-        <v>-0.7</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -597,9 +591,7 @@
       <c r="F5" t="n">
         <v>83</v>
       </c>
-      <c r="G5" t="n">
-        <v>-0.74</v>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -631,9 +623,7 @@
       <c r="F6" t="n">
         <v>79.18000000000001</v>
       </c>
-      <c r="G6" t="n">
-        <v>-0.74</v>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -665,9 +655,7 @@
       <c r="F7" t="n">
         <v>86.98</v>
       </c>
-      <c r="G7" t="n">
-        <v>-0.68</v>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -699,9 +687,7 @@
       <c r="F8" t="n">
         <v>139.79</v>
       </c>
-      <c r="G8" t="n">
-        <v>-0.73</v>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -733,9 +719,7 @@
       <c r="F9" t="n">
         <v>63.57</v>
       </c>
-      <c r="G9" t="n">
-        <v>-0.66</v>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -767,9 +751,7 @@
       <c r="F10" t="n">
         <v>9.6</v>
       </c>
-      <c r="G10" t="n">
-        <v>-0.16</v>
-      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -801,9 +783,7 @@
       <c r="F11" t="n">
         <v>73.11</v>
       </c>
-      <c r="G11" t="n">
-        <v>-0.8100000000000001</v>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -835,9 +815,7 @@
       <c r="F12" t="n">
         <v>46.12</v>
       </c>
-      <c r="G12" t="n">
-        <v>-0.57</v>
-      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -869,9 +847,7 @@
       <c r="F13" t="n">
         <v>74.31</v>
       </c>
-      <c r="G13" t="n">
-        <v>-0.59</v>
-      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -903,9 +879,7 @@
       <c r="F14" t="n">
         <v>73.86</v>
       </c>
-      <c r="G14" t="n">
-        <v>-0.43</v>
-      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -937,9 +911,7 @@
       <c r="F15" t="n">
         <v>40.28</v>
       </c>
-      <c r="G15" t="n">
-        <v>-0.28</v>
-      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -971,9 +943,7 @@
       <c r="F16" t="n">
         <v>8.31</v>
       </c>
-      <c r="G16" t="n">
-        <v>-0.1</v>
-      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1005,9 +975,7 @@
       <c r="F17" t="n">
         <v>1.87</v>
       </c>
-      <c r="G17" t="n">
-        <v>-0.3</v>
-      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1039,9 +1007,7 @@
       <c r="F18" t="n">
         <v>2.62</v>
       </c>
-      <c r="G18" t="n">
-        <v>-0.32</v>
-      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1073,9 +1039,7 @@
       <c r="F19" t="n">
         <v>26.88</v>
       </c>
-      <c r="G19" t="n">
-        <v>-0.71</v>
-      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1107,9 +1071,7 @@
       <c r="F20" t="n">
         <v>0.43</v>
       </c>
-      <c r="G20" t="n">
-        <v>-0.28</v>
-      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1141,9 +1103,7 @@
       <c r="F21" t="n">
         <v>4.34</v>
       </c>
-      <c r="G21" t="n">
-        <v>-0.24</v>
-      </c>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1175,9 +1135,7 @@
       <c r="F22" t="n">
         <v>1.41</v>
       </c>
-      <c r="G22" t="n">
-        <v>-0.59</v>
-      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1209,9 +1167,7 @@
       <c r="F23" t="n">
         <v>9.039999999999999</v>
       </c>
-      <c r="G23" t="n">
-        <v>-1.54</v>
-      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1343,9 +1299,7 @@
       <c r="F27" t="n">
         <v>0.17</v>
       </c>
-      <c r="G27" t="n">
-        <v>-0.13</v>
-      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1411,9 +1365,7 @@
       <c r="F29" t="n">
         <v>0.29</v>
       </c>
-      <c r="G29" t="n">
-        <v>-0.46</v>
-      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1513,9 +1465,7 @@
       <c r="F32" t="n">
         <v>2.42</v>
       </c>
-      <c r="G32" t="n">
-        <v>-1.03</v>
-      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1547,9 +1497,7 @@
       <c r="F33" t="n">
         <v>4.75</v>
       </c>
-      <c r="G33" t="n">
-        <v>-1.41</v>
-      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1581,9 +1529,7 @@
       <c r="F34" t="n">
         <v>4.97</v>
       </c>
-      <c r="G34" t="n">
-        <v>-0.73</v>
-      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1615,9 +1561,7 @@
       <c r="F35" t="n">
         <v>2.08</v>
       </c>
-      <c r="G35" t="n">
-        <v>-0.65</v>
-      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1649,9 +1593,7 @@
       <c r="F36" t="n">
         <v>0.43</v>
       </c>
-      <c r="G36" t="n">
-        <v>-0.35</v>
-      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1683,9 +1625,7 @@
       <c r="F37" t="n">
         <v>0.21</v>
       </c>
-      <c r="G37" t="n">
-        <v>-0.63</v>
-      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1717,9 +1657,7 @@
       <c r="F38" t="n">
         <v>1.33</v>
       </c>
-      <c r="G38" t="n">
-        <v>-1.06</v>
-      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1751,9 +1689,7 @@
       <c r="F39" t="n">
         <v>2.15</v>
       </c>
-      <c r="G39" t="n">
-        <v>-1.32</v>
-      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1785,9 +1721,7 @@
       <c r="F40" t="n">
         <v>0.88</v>
       </c>
-      <c r="G40" t="n">
-        <v>-0.52</v>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1819,9 +1753,7 @@
       <c r="F41" t="n">
         <v>0.86</v>
       </c>
-      <c r="G41" t="n">
-        <v>-0.7</v>
-      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1853,9 +1785,7 @@
       <c r="F42" t="n">
         <v>0.83</v>
       </c>
-      <c r="G42" t="n">
-        <v>-0.86</v>
-      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1887,9 +1817,7 @@
       <c r="F43" t="n">
         <v>0.67</v>
       </c>
-      <c r="G43" t="n">
-        <v>-0.19</v>
-      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1955,9 +1883,7 @@
       <c r="F45" t="n">
         <v>0.7</v>
       </c>
-      <c r="G45" t="n">
-        <v>-0.6</v>
-      </c>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -1989,9 +1915,7 @@
       <c r="F46" t="n">
         <v>11.67</v>
       </c>
-      <c r="G46" t="n">
-        <v>-0.76</v>
-      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -2023,9 +1947,7 @@
       <c r="F47" t="n">
         <v>2.4</v>
       </c>
-      <c r="G47" t="n">
-        <v>-0.86</v>
-      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -2057,9 +1979,7 @@
       <c r="F48" t="n">
         <v>0.08</v>
       </c>
-      <c r="G48" t="n">
-        <v>-0.08</v>
-      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -2091,9 +2011,7 @@
       <c r="F49" t="n">
         <v>4.54</v>
       </c>
-      <c r="G49" t="n">
-        <v>-1.28</v>
-      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -2125,9 +2043,7 @@
       <c r="F50" t="n">
         <v>327.89</v>
       </c>
-      <c r="G50" t="n">
-        <v>-1.23</v>
-      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -2193,9 +2109,7 @@
       <c r="F52" t="n">
         <v>370.2</v>
       </c>
-      <c r="G52" t="n">
-        <v>-1.47</v>
-      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
           <t>111年12月13日 價格指數(臺灣證券交易所)</t>
@@ -2295,9 +2209,7 @@
       <c r="F55" t="n">
         <v>46.52</v>
       </c>
-      <c r="G55" t="n">
-        <v>-0.6899999999999999</v>
-      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2329,9 +2241,7 @@
       <c r="F56" t="n">
         <v>68.2</v>
       </c>
-      <c r="G56" t="n">
-        <v>-1.45</v>
-      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2363,9 +2273,7 @@
       <c r="F57" t="n">
         <v>6.15</v>
       </c>
-      <c r="G57" t="n">
-        <v>-0.18</v>
-      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2397,9 +2305,7 @@
       <c r="F58" t="n">
         <v>56.01</v>
       </c>
-      <c r="G58" t="n">
-        <v>-0.76</v>
-      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2431,9 +2337,7 @@
       <c r="F59" t="n">
         <v>44.57</v>
       </c>
-      <c r="G59" t="n">
-        <v>-0.5600000000000001</v>
-      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2465,9 +2369,7 @@
       <c r="F60" t="n">
         <v>34.16</v>
       </c>
-      <c r="G60" t="n">
-        <v>-0.61</v>
-      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2499,9 +2401,7 @@
       <c r="F61" t="n">
         <v>35.47</v>
       </c>
-      <c r="G61" t="n">
-        <v>-0.65</v>
-      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2533,9 +2433,7 @@
       <c r="F62" t="n">
         <v>32.28</v>
       </c>
-      <c r="G62" t="n">
-        <v>-0.65</v>
-      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2567,9 +2465,7 @@
       <c r="F63" t="n">
         <v>25.79</v>
       </c>
-      <c r="G63" t="n">
-        <v>-0.5600000000000001</v>
-      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2601,9 +2497,7 @@
       <c r="F64" t="n">
         <v>26.03</v>
       </c>
-      <c r="G64" t="n">
-        <v>-0.64</v>
-      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2635,9 +2529,7 @@
       <c r="F65" t="n">
         <v>25.87</v>
       </c>
-      <c r="G65" t="n">
-        <v>-0.68</v>
-      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2669,9 +2561,7 @@
       <c r="F66" t="n">
         <v>46.54</v>
       </c>
-      <c r="G66" t="n">
-        <v>-1.06</v>
-      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2703,9 +2593,7 @@
       <c r="F67" t="n">
         <v>24.65</v>
       </c>
-      <c r="G67" t="n">
-        <v>-0.58</v>
-      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2737,9 +2625,7 @@
       <c r="F68" t="n">
         <v>33.18</v>
       </c>
-      <c r="G68" t="n">
-        <v>-0.8100000000000001</v>
-      </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2771,9 +2657,7 @@
       <c r="F69" t="n">
         <v>21.44</v>
       </c>
-      <c r="G69" t="n">
-        <v>-0.59</v>
-      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2805,9 +2689,7 @@
       <c r="F70" t="n">
         <v>18.93</v>
       </c>
-      <c r="G70" t="n">
-        <v>-0.51</v>
-      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2839,9 +2721,7 @@
       <c r="F71" t="n">
         <v>27.48</v>
       </c>
-      <c r="G71" t="n">
-        <v>-0.62</v>
-      </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2873,9 +2753,7 @@
       <c r="F72" t="n">
         <v>31.45</v>
       </c>
-      <c r="G72" t="n">
-        <v>-0.76</v>
-      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2907,9 +2785,7 @@
       <c r="F73" t="n">
         <v>24.1</v>
       </c>
-      <c r="G73" t="n">
-        <v>-0.9</v>
-      </c>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2975,9 +2851,7 @@
       <c r="F75" t="n">
         <v>27.85</v>
       </c>
-      <c r="G75" t="n">
-        <v>-0.73</v>
-      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3009,9 +2883,7 @@
       <c r="F76" t="n">
         <v>17.88</v>
       </c>
-      <c r="G76" t="n">
-        <v>-0.49</v>
-      </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3043,9 +2915,7 @@
       <c r="F77" t="n">
         <v>31.92</v>
       </c>
-      <c r="G77" t="n">
-        <v>-0.99</v>
-      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3077,9 +2947,7 @@
       <c r="F78" t="n">
         <v>12.99</v>
       </c>
-      <c r="G78" t="n">
-        <v>-0.28</v>
-      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3111,9 +2979,7 @@
       <c r="F79" t="n">
         <v>28.53</v>
       </c>
-      <c r="G79" t="n">
-        <v>-0.75</v>
-      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3145,9 +3011,7 @@
       <c r="F80" t="n">
         <v>16.6</v>
       </c>
-      <c r="G80" t="n">
-        <v>-0.45</v>
-      </c>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3179,9 +3043,7 @@
       <c r="F81" t="n">
         <v>72.34</v>
       </c>
-      <c r="G81" t="n">
-        <v>-1.9</v>
-      </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3213,9 +3075,7 @@
       <c r="F82" t="n">
         <v>32.07</v>
       </c>
-      <c r="G82" t="n">
-        <v>-0.76</v>
-      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3247,9 +3107,7 @@
       <c r="F83" t="n">
         <v>15.44</v>
       </c>
-      <c r="G83" t="n">
-        <v>-0.42</v>
-      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3281,9 +3139,7 @@
       <c r="F84" t="n">
         <v>27.49</v>
       </c>
-      <c r="G84" t="n">
-        <v>-0.58</v>
-      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3315,9 +3171,7 @@
       <c r="F85" t="n">
         <v>27.87</v>
       </c>
-      <c r="G85" t="n">
-        <v>-0.64</v>
-      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3349,9 +3203,7 @@
       <c r="F86" t="n">
         <v>36.65</v>
       </c>
-      <c r="G86" t="n">
-        <v>-0.7</v>
-      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3383,9 +3235,7 @@
       <c r="F87" t="n">
         <v>393.66</v>
       </c>
-      <c r="G87" t="n">
-        <v>-1.53</v>
-      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3451,9 +3301,7 @@
       <c r="F89" t="n">
         <v>50.57</v>
       </c>
-      <c r="G89" t="n">
-        <v>-0.66</v>
-      </c>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3485,9 +3333,7 @@
       <c r="F90" t="n">
         <v>49.68</v>
       </c>
-      <c r="G90" t="n">
-        <v>-0.7</v>
-      </c>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3519,9 +3365,7 @@
       <c r="F91" t="n">
         <v>47.58</v>
       </c>
-      <c r="G91" t="n">
-        <v>-0.63</v>
-      </c>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3553,9 +3397,7 @@
       <c r="F92" t="n">
         <v>47.59</v>
       </c>
-      <c r="G92" t="n">
-        <v>-0.64</v>
-      </c>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3587,9 +3429,7 @@
       <c r="F93" t="n">
         <v>56.46</v>
       </c>
-      <c r="G93" t="n">
-        <v>-0.89</v>
-      </c>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3621,9 +3461,7 @@
       <c r="F94" t="n">
         <v>97.13</v>
       </c>
-      <c r="G94" t="n">
-        <v>-0.67</v>
-      </c>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3655,9 +3493,7 @@
       <c r="F95" t="n">
         <v>40.52</v>
       </c>
-      <c r="G95" t="n">
-        <v>-0.62</v>
-      </c>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3689,9 +3525,7 @@
       <c r="F96" t="n">
         <v>55.69</v>
       </c>
-      <c r="G96" t="n">
-        <v>-0.75</v>
-      </c>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3723,9 +3557,7 @@
       <c r="F97" t="n">
         <v>37.92</v>
       </c>
-      <c r="G97" t="n">
-        <v>-0.66</v>
-      </c>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3757,9 +3589,7 @@
       <c r="F98" t="n">
         <v>19.31</v>
       </c>
-      <c r="G98" t="n">
-        <v>-0.35</v>
-      </c>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3791,9 +3621,7 @@
       <c r="F99" t="n">
         <v>31.64</v>
       </c>
-      <c r="G99" t="n">
-        <v>-0.49</v>
-      </c>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3825,9 +3653,7 @@
       <c r="F100" t="n">
         <v>74.33</v>
       </c>
-      <c r="G100" t="n">
-        <v>-1.12</v>
-      </c>
+      <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3859,9 +3685,7 @@
       <c r="F101" t="n">
         <v>48.72</v>
       </c>
-      <c r="G101" t="n">
-        <v>-0.59</v>
-      </c>
+      <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3893,9 +3717,7 @@
       <c r="F102" t="n">
         <v>22.67</v>
       </c>
-      <c r="G102" t="n">
-        <v>-0.4</v>
-      </c>
+      <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3927,9 +3749,7 @@
       <c r="F103" t="n">
         <v>48.23</v>
       </c>
-      <c r="G103" t="n">
-        <v>-0.64</v>
-      </c>
+      <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3961,9 +3781,7 @@
       <c r="F104" t="n">
         <v>42.85</v>
       </c>
-      <c r="G104" t="n">
-        <v>-0.61</v>
-      </c>
+      <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3995,9 +3813,7 @@
       <c r="F105" t="n">
         <v>68.29000000000001</v>
       </c>
-      <c r="G105" t="n">
-        <v>-1.1</v>
-      </c>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4029,9 +3845,7 @@
       <c r="F106" t="n">
         <v>62.05</v>
       </c>
-      <c r="G106" t="n">
-        <v>-1.06</v>
-      </c>
+      <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4063,9 +3877,7 @@
       <c r="F107" t="n">
         <v>25.19</v>
       </c>
-      <c r="G107" t="n">
-        <v>-0.54</v>
-      </c>
+      <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4097,9 +3909,7 @@
       <c r="F108" t="n">
         <v>32.61</v>
       </c>
-      <c r="G108" t="n">
-        <v>-0.43</v>
-      </c>
+      <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4131,9 +3941,7 @@
       <c r="F109" t="n">
         <v>6.35</v>
       </c>
-      <c r="G109" t="n">
-        <v>-0.1</v>
-      </c>
+      <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4165,9 +3973,7 @@
       <c r="F110" t="n">
         <v>71.97</v>
       </c>
-      <c r="G110" t="n">
-        <v>-1.31</v>
-      </c>
+      <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4199,9 +4005,7 @@
       <c r="F111" t="n">
         <v>32.49</v>
       </c>
-      <c r="G111" t="n">
-        <v>-0.49</v>
-      </c>
+      <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4233,9 +4037,7 @@
       <c r="F112" t="n">
         <v>28.89</v>
       </c>
-      <c r="G112" t="n">
-        <v>-0.53</v>
-      </c>
+      <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4267,9 +4069,7 @@
       <c r="F113" t="n">
         <v>18.67</v>
       </c>
-      <c r="G113" t="n">
-        <v>-0.48</v>
-      </c>
+      <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4301,9 +4101,7 @@
       <c r="F114" t="n">
         <v>61.77</v>
       </c>
-      <c r="G114" t="n">
-        <v>-1.59</v>
-      </c>
+      <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4335,9 +4133,7 @@
       <c r="F115" t="n">
         <v>63.1</v>
       </c>
-      <c r="G115" t="n">
-        <v>-1.59</v>
-      </c>
+      <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4369,9 +4165,7 @@
       <c r="F116" t="n">
         <v>29.73</v>
       </c>
-      <c r="G116" t="n">
-        <v>-0.68</v>
-      </c>
+      <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4403,9 +4197,7 @@
       <c r="F117" t="n">
         <v>41.83</v>
       </c>
-      <c r="G117" t="n">
-        <v>-0.9</v>
-      </c>
+      <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4437,9 +4229,7 @@
       <c r="F118" t="n">
         <v>71.69</v>
       </c>
-      <c r="G118" t="n">
-        <v>-1.29</v>
-      </c>
+      <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4471,9 +4261,7 @@
       <c r="F119" t="n">
         <v>41.97</v>
       </c>
-      <c r="G119" t="n">
-        <v>-0.85</v>
-      </c>
+      <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4505,9 +4293,7 @@
       <c r="F120" t="n">
         <v>70.41</v>
       </c>
-      <c r="G120" t="n">
-        <v>-1.39</v>
-      </c>
+      <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>

--- a/專題/merge.xlsx
+++ b/專題/merge.xlsx
@@ -484,21 +484,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16,612.95</t>
+          <t>16,863.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>102.42</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>250.39</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.51</v>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -516,21 +518,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14,522.96</t>
+          <t>14,739.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>89.63</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>216.4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.49</v>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -548,21 +552,23 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8,293.37</t>
+          <t>8,417.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>58.88</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>124.07</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.5</v>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -580,21 +586,23 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11,092.49</t>
+          <t>11,271.36</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>83</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>178.87</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.61</v>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -612,21 +620,23 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10,555.73</t>
+          <t>10,716.29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>79.18000000000001</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>160.56</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.52</v>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -644,21 +654,23 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12,772.14</t>
+          <t>12,984.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>86.98</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>211.96</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.66</v>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -676,21 +688,23 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18,966.42</t>
+          <t>19,328.54</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>139.79</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>362.12</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.91</v>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -708,21 +722,23 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9,510.00</t>
+          <t>9,621.79</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>63.57</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>111.79</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.18</v>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -740,21 +756,23 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5,947.38</t>
+          <t>6,002.28</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+        <v>54.9</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.92</v>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -772,21 +790,23 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8,912.93</t>
+          <t>9,021.84</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>73.11</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+        <v>108.91</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.22</v>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -804,21 +824,23 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7,980.33</t>
+          <t>8,071.76</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>46.12</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+        <v>91.43000000000001</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.15</v>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -836,21 +858,23 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12,472.38</t>
+          <t>12,669.20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>74.31</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+        <v>196.82</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.58</v>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -868,21 +892,23 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>17,081.46</t>
+          <t>17,251.07</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>73.86</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
+        <v>169.61</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.99</v>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -900,21 +926,23 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14,213.75</t>
+          <t>14,363.25</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>40.28</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
+        <v>149.5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.05</v>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -932,21 +960,23 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8,194.96</t>
+          <t>8,282.99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
+        <v>88.03</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.07</v>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -964,21 +994,23 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>612.28</t>
+          <t>613.17</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
+        <v>0.89</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.15</v>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -996,21 +1028,23 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>819.16</t>
+          <t>827.80</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
+        <v>8.640000000000001</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.05</v>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1028,21 +1062,23 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3,769.01</t>
+          <t>3,837.06</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>26.88</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
+        <v>68.05</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.81</v>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1060,7 +1096,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>154.16</t>
+          <t>153.73</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1074,7 +1110,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1092,21 +1128,23 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1,797.84</t>
+          <t>1,810.75</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
+        <v>12.91</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.72</v>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1124,21 +1162,23 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>238.46</t>
+          <t>241.73</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>3.27</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.37</v>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1156,21 +1196,23 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>576.81</t>
+          <t>582.31</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
+        <v>5.5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.95</v>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1230,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>226.09</t>
+          <t>229.48</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1197,12 +1239,14 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
+        <v>3.39</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.5</v>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1264,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>106.26</t>
+          <t>107.22</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1229,14 +1273,14 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.25</v>
+        <v>0.96</v>
       </c>
       <c r="G25" t="n">
-        <v>0.24</v>
+        <v>0.9</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1298,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>117.31</t>
+          <t>117.72</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1263,14 +1307,14 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.64</v>
+        <v>0.41</v>
       </c>
       <c r="G26" t="n">
-        <v>0.55</v>
+        <v>0.35</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1288,21 +1332,23 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>128.21</t>
+          <t>129.24</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
+        <v>1.03</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.8</v>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1320,23 +1366,21 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>73.05</t>
+          <t>73.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1.18</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1354,21 +1398,23 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>63.16</t>
+          <t>64.62</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="G29" t="inlineStr"/>
+        <v>1.46</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.31</v>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1432,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>295.71</t>
+          <t>296.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1395,14 +1441,14 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.3</v>
+        <v>0.29</v>
       </c>
       <c r="G30" t="n">
-        <v>0.78</v>
+        <v>0.1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1420,23 +1466,21 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>139.19</t>
+          <t>138.94</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1.94</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1454,21 +1498,23 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>232.54</t>
+          <t>234.88</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="G32" t="inlineStr"/>
+        <v>2.34</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.01</v>
+      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1486,21 +1532,23 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>332.54</t>
+          <t>343.81</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
+        <v>11.27</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.39</v>
+      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1518,21 +1566,23 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>672.21</t>
+          <t>684.45</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
+        <v>12.24</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.82</v>
+      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1550,21 +1600,23 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>317.59</t>
+          <t>323.91</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="G35" t="inlineStr"/>
+        <v>6.32</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.99</v>
+      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1582,21 +1634,23 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>123.24</t>
+          <t>125.82</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="G36" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.09</v>
+      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1614,21 +1668,23 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>33.25</t>
+          <t>33.90</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="G37" t="inlineStr"/>
+        <v>0.65</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.95</v>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1646,21 +1702,23 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>124.67</t>
+          <t>125.82</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="G38" t="inlineStr"/>
+        <v>1.15</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.92</v>
+      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1678,21 +1736,23 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>160.75</t>
+          <t>163.25</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="G39" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.56</v>
+      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1710,21 +1770,23 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>169.90</t>
+          <t>170.98</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="G40" t="inlineStr"/>
+        <v>1.08</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.64</v>
+      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1742,21 +1804,23 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>122.46</t>
+          <t>122.83</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="G41" t="inlineStr"/>
+        <v>0.37</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.3</v>
+      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1774,21 +1838,23 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>95.69</t>
+          <t>97.18</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="G42" t="inlineStr"/>
+        <v>1.49</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.56</v>
+      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1806,21 +1872,23 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>348.94</t>
+          <t>350.38</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="G43" t="inlineStr"/>
+        <v>1.44</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.41</v>
+      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1838,23 +1906,21 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>158.40</t>
+          <t>157.77</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.54</v>
-      </c>
+        <v>0.63</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1872,21 +1938,23 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>115.75</t>
+          <t>116.98</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G45" t="inlineStr"/>
+        <v>1.23</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.06</v>
+      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1904,21 +1972,23 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1,514.80</t>
+          <t>1,527.82</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="G46" t="inlineStr"/>
+        <v>13.02</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.86</v>
+      </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1936,21 +2006,23 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>278.18</t>
+          <t>283.34</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G47" t="inlineStr"/>
+        <v>5.16</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.85</v>
+      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1968,21 +2040,23 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>106.51</t>
+          <t>108.70</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
+        <v>2.19</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2.06</v>
+      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2000,21 +2074,23 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>351.12</t>
+          <t>357.01</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="G49" t="inlineStr"/>
+        <v>5.89</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.68</v>
+      </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2032,21 +2108,23 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>26,400.06</t>
+          <t>27,186.81</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>327.89</v>
-      </c>
-      <c r="G50" t="inlineStr"/>
+        <v>786.75</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2.98</v>
+      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2064,23 +2142,21 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4,716.76</t>
+          <t>4,646.48</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>28.76</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.61</v>
-      </c>
+        <v>70.28</v>
+      </c>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2098,21 +2174,23 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>24,850.04</t>
+          <t>25,755.01</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>370.2</v>
-      </c>
-      <c r="G52" t="inlineStr"/>
+        <v>904.97</v>
+      </c>
+      <c r="G52" t="n">
+        <v>3.64</v>
+      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2130,23 +2208,21 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4,273.29</t>
+          <t>4,195.48</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>31.13</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.73</v>
-      </c>
+        <v>77.81</v>
+      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>111年12月13日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2164,7 +2240,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4,439.35</t>
+          <t>4,446.15</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2173,10 +2249,10 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>12.53</v>
+        <v>6.8</v>
       </c>
       <c r="G54" t="n">
-        <v>0.28</v>
+        <v>0.15</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -2198,18 +2274,20 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>6,720.45</t>
+          <t>6,848.84</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>46.52</v>
-      </c>
-      <c r="G55" t="inlineStr"/>
+        <v>128.39</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.91</v>
+      </c>
       <c r="H55" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2230,18 +2308,20 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4,628.61</t>
+          <t>4,734.34</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>68.2</v>
-      </c>
-      <c r="G56" t="inlineStr"/>
+        <v>105.73</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.28</v>
+      </c>
       <c r="H56" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2262,7 +2342,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3,429.45</t>
+          <t>3,428.35</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2271,7 +2351,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>6.15</v>
+        <v>1.1</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
@@ -2294,18 +2374,20 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>7,278.67</t>
+          <t>7,401.03</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>56.01</v>
-      </c>
-      <c r="G58" t="inlineStr"/>
+        <v>122.36</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.68</v>
+      </c>
       <c r="H58" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2326,18 +2408,20 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>7,875.74</t>
+          <t>7,958.84</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>44.57</v>
-      </c>
-      <c r="G59" t="inlineStr"/>
+        <v>83.09999999999999</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.06</v>
+      </c>
       <c r="H59" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2358,18 +2442,20 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5,591.57</t>
+          <t>5,692.85</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>34.16</v>
-      </c>
-      <c r="G60" t="inlineStr"/>
+        <v>101.28</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.81</v>
+      </c>
       <c r="H60" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2390,18 +2476,20 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>5,447.74</t>
+          <t>5,546.47</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>35.47</v>
-      </c>
-      <c r="G61" t="inlineStr"/>
+        <v>98.73</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.81</v>
+      </c>
       <c r="H61" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2422,18 +2510,20 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4,922.11</t>
+          <t>4,998.67</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>32.28</v>
-      </c>
-      <c r="G62" t="inlineStr"/>
+        <v>76.56</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.56</v>
+      </c>
       <c r="H62" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2454,18 +2544,20 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>4,579.63</t>
+          <t>4,681.90</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>25.79</v>
-      </c>
-      <c r="G63" t="inlineStr"/>
+        <v>102.27</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2.23</v>
+      </c>
       <c r="H63" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2486,18 +2578,20 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4,040.45</t>
+          <t>4,110.81</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>26.03</v>
-      </c>
-      <c r="G64" t="inlineStr"/>
+        <v>70.36</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.74</v>
+      </c>
       <c r="H64" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2518,18 +2612,20 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3,782.23</t>
+          <t>3,871.20</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>25.87</v>
-      </c>
-      <c r="G65" t="inlineStr"/>
+        <v>88.97</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2.35</v>
+      </c>
       <c r="H65" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2550,18 +2646,20 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>4,360.16</t>
+          <t>4,467.67</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>46.54</v>
-      </c>
-      <c r="G66" t="inlineStr"/>
+        <v>107.51</v>
+      </c>
+      <c r="G66" t="n">
+        <v>2.47</v>
+      </c>
       <c r="H66" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2582,18 +2680,20 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4,253.28</t>
+          <t>4,321.34</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>24.65</v>
-      </c>
-      <c r="G67" t="inlineStr"/>
+        <v>68.06</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1.6</v>
+      </c>
       <c r="H67" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2614,18 +2714,20 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>4,077.99</t>
+          <t>4,155.12</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>33.18</v>
-      </c>
-      <c r="G68" t="inlineStr"/>
+        <v>77.13</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1.89</v>
+      </c>
       <c r="H68" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2646,18 +2748,20 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3,626.05</t>
+          <t>3,711.45</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>21.44</v>
-      </c>
-      <c r="G69" t="inlineStr"/>
+        <v>85.40000000000001</v>
+      </c>
+      <c r="G69" t="n">
+        <v>2.36</v>
+      </c>
       <c r="H69" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2678,18 +2782,20 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3,720.57</t>
+          <t>3,766.14</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>18.93</v>
-      </c>
-      <c r="G70" t="inlineStr"/>
+        <v>45.57</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.22</v>
+      </c>
       <c r="H70" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2710,18 +2816,20 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4,377.18</t>
+          <t>4,433.36</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>27.48</v>
-      </c>
-      <c r="G71" t="inlineStr"/>
+        <v>56.18</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1.28</v>
+      </c>
       <c r="H71" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2742,18 +2850,20 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>4,113.10</t>
+          <t>4,165.25</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>31.45</v>
-      </c>
-      <c r="G72" t="inlineStr"/>
+        <v>52.15</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.27</v>
+      </c>
       <c r="H72" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2774,18 +2884,20 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2,663.33</t>
+          <t>2,769.70</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="G73" t="inlineStr"/>
+        <v>106.37</v>
+      </c>
+      <c r="G73" t="n">
+        <v>3.99</v>
+      </c>
       <c r="H73" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2806,7 +2918,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>3,980.41</t>
+          <t>4,016.38</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2815,10 +2927,10 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>17.13</v>
+        <v>35.97</v>
       </c>
       <c r="G74" t="n">
-        <v>0.43</v>
+        <v>0.9</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -2840,18 +2952,20 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3,810.54</t>
+          <t>3,863.17</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>27.85</v>
-      </c>
-      <c r="G75" t="inlineStr"/>
+        <v>52.63</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1.38</v>
+      </c>
       <c r="H75" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2872,18 +2986,20 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3,604.41</t>
+          <t>3,649.42</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>17.88</v>
-      </c>
-      <c r="G76" t="inlineStr"/>
+        <v>45.01</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.25</v>
+      </c>
       <c r="H76" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2904,18 +3020,20 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3,180.31</t>
+          <t>3,281.54</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>31.92</v>
-      </c>
-      <c r="G77" t="inlineStr"/>
+        <v>101.23</v>
+      </c>
+      <c r="G77" t="n">
+        <v>3.18</v>
+      </c>
       <c r="H77" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2936,18 +3054,20 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4,691.04</t>
+          <t>4,743.12</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="G78" t="inlineStr"/>
+        <v>52.08</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.11</v>
+      </c>
       <c r="H78" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2968,18 +3088,20 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>3,752.49</t>
+          <t>3,816.82</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>28.53</v>
-      </c>
-      <c r="G79" t="inlineStr"/>
+        <v>64.33</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.71</v>
+      </c>
       <c r="H79" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3000,18 +3122,20 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3,637.92</t>
+          <t>3,700.26</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="G80" t="inlineStr"/>
+        <v>62.34</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.71</v>
+      </c>
       <c r="H80" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3032,18 +3156,20 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>3,733.07</t>
+          <t>3,785.29</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>72.34</v>
-      </c>
-      <c r="G81" t="inlineStr"/>
+        <v>52.22</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1.4</v>
+      </c>
       <c r="H81" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3064,18 +3190,20 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4,182.82</t>
+          <t>4,267.90</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>32.07</v>
-      </c>
-      <c r="G82" t="inlineStr"/>
+        <v>85.08</v>
+      </c>
+      <c r="G82" t="n">
+        <v>2.03</v>
+      </c>
       <c r="H82" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3096,18 +3224,20 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>3,665.08</t>
+          <t>3,703.32</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>15.44</v>
-      </c>
-      <c r="G83" t="inlineStr"/>
+        <v>38.24</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.04</v>
+      </c>
       <c r="H83" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3128,18 +3258,20 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4,686.57</t>
+          <t>4,715.50</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>27.49</v>
-      </c>
-      <c r="G84" t="inlineStr"/>
+        <v>28.93</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.62</v>
+      </c>
       <c r="H84" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3160,18 +3292,20 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4,324.67</t>
+          <t>4,379.21</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>27.87</v>
-      </c>
-      <c r="G85" t="inlineStr"/>
+        <v>54.54</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.26</v>
+      </c>
       <c r="H85" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3192,18 +3326,20 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5,181.49</t>
+          <t>5,258.13</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>36.65</v>
-      </c>
-      <c r="G86" t="inlineStr"/>
+        <v>76.64</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.48</v>
+      </c>
       <c r="H86" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3224,18 +3360,20 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>25,352.06</t>
+          <t>25,787.87</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>393.66</v>
-      </c>
-      <c r="G87" t="inlineStr"/>
+        <v>435.81</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.72</v>
+      </c>
       <c r="H87" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3256,20 +3394,18 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>5,039.76</t>
+          <t>4,996.44</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>38.24</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.76</v>
-      </c>
+        <v>43.32</v>
+      </c>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3290,18 +3426,20 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>7,620.75</t>
+          <t>7,718.89</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>50.57</v>
-      </c>
-      <c r="G89" t="inlineStr"/>
+        <v>98.14</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1.29</v>
+      </c>
       <c r="H89" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3322,18 +3460,20 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>7,083.44</t>
+          <t>7,195.43</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>49.68</v>
-      </c>
-      <c r="G90" t="inlineStr"/>
+        <v>111.99</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1.58</v>
+      </c>
       <c r="H90" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3354,18 +3494,20 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>7,548.62</t>
+          <t>7,706.82</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>47.58</v>
-      </c>
-      <c r="G91" t="inlineStr"/>
+        <v>158.2</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2.1</v>
+      </c>
       <c r="H91" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3386,18 +3528,20 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>7,403.67</t>
+          <t>7,589.41</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>47.59</v>
-      </c>
-      <c r="G92" t="inlineStr"/>
+        <v>185.74</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2.51</v>
+      </c>
       <c r="H92" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3418,18 +3562,20 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>6,277.07</t>
+          <t>6,340.89</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>56.46</v>
-      </c>
-      <c r="G93" t="inlineStr"/>
+        <v>63.82</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1.02</v>
+      </c>
       <c r="H93" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3450,18 +3596,20 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>14,305.68</t>
+          <t>14,676.63</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>97.13</v>
-      </c>
-      <c r="G94" t="inlineStr"/>
+        <v>370.95</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2.59</v>
+      </c>
       <c r="H94" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3482,18 +3630,20 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>6,513.21</t>
+          <t>6,574.44</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>40.52</v>
-      </c>
-      <c r="G95" t="inlineStr"/>
+        <v>61.23</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.9399999999999999</v>
+      </c>
       <c r="H95" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3514,18 +3664,20 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>7,401.68</t>
+          <t>7,508.60</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>55.69</v>
-      </c>
-      <c r="G96" t="inlineStr"/>
+        <v>106.92</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.44</v>
+      </c>
       <c r="H96" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3546,18 +3698,20 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>5,691.60</t>
+          <t>5,755.48</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>37.92</v>
-      </c>
-      <c r="G97" t="inlineStr"/>
+        <v>63.88</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1.12</v>
+      </c>
       <c r="H97" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3578,18 +3732,20 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>5,517.22</t>
+          <t>5,612.76</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>19.31</v>
-      </c>
-      <c r="G98" t="inlineStr"/>
+        <v>95.54000000000001</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1.73</v>
+      </c>
       <c r="H98" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3610,18 +3766,20 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>6,491.72</t>
+          <t>6,581.94</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>31.64</v>
-      </c>
-      <c r="G99" t="inlineStr"/>
+        <v>90.22</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1.39</v>
+      </c>
       <c r="H99" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3642,18 +3800,20 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>6,556.96</t>
+          <t>6,669.97</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>74.33</v>
-      </c>
-      <c r="G100" t="inlineStr"/>
+        <v>113.01</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1.72</v>
+      </c>
       <c r="H100" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3674,18 +3834,20 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>8,203.09</t>
+          <t>8,331.79</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>48.72</v>
-      </c>
-      <c r="G101" t="inlineStr"/>
+        <v>128.7</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1.57</v>
+      </c>
       <c r="H101" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3706,18 +3868,20 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>5,649.77</t>
+          <t>5,673.59</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>22.67</v>
-      </c>
-      <c r="G102" t="inlineStr"/>
+        <v>23.82</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0.42</v>
+      </c>
       <c r="H102" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3738,18 +3902,20 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>7,488.25</t>
+          <t>7,599.78</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>48.23</v>
-      </c>
-      <c r="G103" t="inlineStr"/>
+        <v>111.53</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1.49</v>
+      </c>
       <c r="H103" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3770,18 +3936,20 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>7,015.56</t>
+          <t>7,101.08</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>42.85</v>
-      </c>
-      <c r="G104" t="inlineStr"/>
+        <v>85.52</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1.22</v>
+      </c>
       <c r="H104" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3802,18 +3970,20 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>6,136.92</t>
+          <t>6,191.12</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>68.29000000000001</v>
-      </c>
-      <c r="G105" t="inlineStr"/>
+        <v>54.2</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0.88</v>
+      </c>
       <c r="H105" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3834,18 +4004,20 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>5,777.56</t>
+          <t>5,890.21</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>62.05</v>
-      </c>
-      <c r="G106" t="inlineStr"/>
+        <v>112.65</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1.95</v>
+      </c>
       <c r="H106" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3866,18 +4038,20 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>4,683.04</t>
+          <t>4,733.35</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>25.19</v>
-      </c>
-      <c r="G107" t="inlineStr"/>
+        <v>50.31</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1.07</v>
+      </c>
       <c r="H107" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3898,18 +4072,20 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>7,636.32</t>
+          <t>7,736.78</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>32.61</v>
-      </c>
-      <c r="G108" t="inlineStr"/>
+        <v>100.46</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1.32</v>
+      </c>
       <c r="H108" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3930,18 +4106,20 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>6,076.49</t>
+          <t>6,165.34</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="G109" t="inlineStr"/>
+        <v>88.84999999999999</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1.46</v>
+      </c>
       <c r="H109" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3962,18 +4140,20 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>5,429.38</t>
+          <t>5,587.24</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>71.97</v>
-      </c>
-      <c r="G110" t="inlineStr"/>
+        <v>157.86</v>
+      </c>
+      <c r="G110" t="n">
+        <v>2.91</v>
+      </c>
       <c r="H110" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3994,18 +4174,20 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>6,547.05</t>
+          <t>6,622.47</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>32.49</v>
-      </c>
-      <c r="G111" t="inlineStr"/>
+        <v>75.42</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1.15</v>
+      </c>
       <c r="H111" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4026,18 +4208,20 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>5,409.84</t>
+          <t>5,491.83</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>28.89</v>
-      </c>
-      <c r="G112" t="inlineStr"/>
+        <v>81.98999999999999</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1.52</v>
+      </c>
       <c r="H112" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4058,18 +4242,20 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>3,907.59</t>
+          <t>3,959.29</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="G113" t="inlineStr"/>
+        <v>51.7</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1.32</v>
+      </c>
       <c r="H113" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4090,18 +4276,20 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>3,830.27</t>
+          <t>3,969.44</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>61.77</v>
-      </c>
-      <c r="G114" t="inlineStr"/>
+        <v>139.17</v>
+      </c>
+      <c r="G114" t="n">
+        <v>3.63</v>
+      </c>
       <c r="H114" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4122,18 +4310,20 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>3,916.41</t>
+          <t>4,064.49</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="G115" t="inlineStr"/>
+        <v>148.08</v>
+      </c>
+      <c r="G115" t="n">
+        <v>3.78</v>
+      </c>
       <c r="H115" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4154,18 +4344,20 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>4,343.05</t>
+          <t>4,411.48</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>29.73</v>
-      </c>
-      <c r="G116" t="inlineStr"/>
+        <v>68.43000000000001</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.58</v>
+      </c>
       <c r="H116" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4186,18 +4378,20 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>4,607.07</t>
+          <t>4,661.06</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>41.83</v>
-      </c>
-      <c r="G117" t="inlineStr"/>
+        <v>53.99</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1.17</v>
+      </c>
       <c r="H117" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4218,18 +4412,20 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>5,466.48</t>
+          <t>5,618.24</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>71.69</v>
-      </c>
-      <c r="G118" t="inlineStr"/>
+        <v>151.76</v>
+      </c>
+      <c r="G118" t="n">
+        <v>2.78</v>
+      </c>
       <c r="H118" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4250,18 +4446,20 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>4,894.75</t>
+          <t>4,934.88</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>41.97</v>
-      </c>
-      <c r="G119" t="inlineStr"/>
+        <v>40.13</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.82</v>
+      </c>
       <c r="H119" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4282,18 +4480,20 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>5,007.33</t>
+          <t>5,105.21</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>70.41</v>
-      </c>
-      <c r="G120" t="inlineStr"/>
+        <v>97.88</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1.95</v>
+      </c>
       <c r="H120" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>

--- a/專題/merge.xlsx
+++ b/專題/merge.xlsx
@@ -484,23 +484,21 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16,863.34</t>
+          <t>16,323.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>250.39</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.51</v>
-      </c>
+        <v>183.7</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -518,23 +516,21 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14,739.36</t>
+          <t>14,271.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>216.4</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.49</v>
-      </c>
+        <v>171.31</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -552,23 +548,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8,417.44</t>
+          <t>8,138.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>124.07</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.5</v>
-      </c>
+        <v>122.22</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -586,23 +580,21 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11,271.36</t>
+          <t>10,839.24</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>178.87</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.61</v>
-      </c>
+        <v>185.15</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -620,23 +612,21 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10,716.29</t>
+          <t>10,354.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>160.56</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.52</v>
-      </c>
+        <v>141.01</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -654,23 +644,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12,984.10</t>
+          <t>12,646.51</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>211.96</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.66</v>
-      </c>
+        <v>82.43000000000001</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -688,23 +676,21 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>19,328.54</t>
+          <t>18,365.42</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>362.12</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.91</v>
-      </c>
+        <v>354.33</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -722,23 +708,21 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9,621.79</t>
+          <t>9,573.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>111.79</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.18</v>
-      </c>
+        <v>82.45</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -756,23 +740,21 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6,002.28</t>
+          <t>5,999.35</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.92</v>
-      </c>
+        <v>58.63</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -790,23 +772,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9,021.84</t>
+          <t>8,766.58</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>108.91</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.22</v>
-      </c>
+        <v>79.61</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -824,23 +804,21 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8,071.76</t>
+          <t>7,924.16</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>91.43000000000001</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.15</v>
-      </c>
+        <v>58.38</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -858,23 +836,21 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12,669.20</t>
+          <t>12,243.83</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>196.82</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.58</v>
-      </c>
+        <v>158.2</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -892,23 +868,21 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>17,251.07</t>
+          <t>17,089.78</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>169.61</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.99</v>
-      </c>
+        <v>103.38</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -926,23 +900,21 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>14,363.25</t>
+          <t>14,286.46</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>149.5</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.05</v>
-      </c>
+        <v>89.89</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -960,23 +932,21 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8,282.99</t>
+          <t>8,082.54</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>88.03</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1.07</v>
-      </c>
+        <v>20.26</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -994,23 +964,21 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>613.17</t>
+          <t>604.07</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.15</v>
-      </c>
+        <v>2.82</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1028,23 +996,21 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>827.80</t>
+          <t>807.38</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>8.640000000000001</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.05</v>
-      </c>
+        <v>5.47</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1062,23 +1028,21 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3,837.06</t>
+          <t>3,660.66</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>68.05</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.81</v>
-      </c>
+        <v>57.42</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1060,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>153.73</t>
+          <t>155.29</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1105,12 +1069,12 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.43</v>
+        <v>0.92</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1092,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1,810.75</t>
+          <t>1,793.60</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1137,14 +1101,14 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>12.91</v>
+        <v>1.52</v>
       </c>
       <c r="G21" t="n">
-        <v>0.72</v>
+        <v>0.08</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1162,23 +1126,21 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>241.73</t>
+          <t>235.68</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.37</v>
-      </c>
+        <v>1.97</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1196,23 +1158,21 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>582.31</t>
+          <t>582.52</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.95</v>
-      </c>
+        <v>6.74</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1230,23 +1190,21 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>229.48</t>
+          <t>222.10</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="G24" t="n">
-        <v>1.5</v>
-      </c>
+        <v>0.13</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1264,23 +1222,21 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>107.22</t>
+          <t>104.81</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.9</v>
-      </c>
+        <v>1.39</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1298,23 +1254,21 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>117.72</t>
+          <t>114.73</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.35</v>
-      </c>
+        <v>0.49</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1332,23 +1286,21 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>129.24</t>
+          <t>125.50</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.8</v>
-      </c>
+        <v>1.17</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1366,21 +1318,23 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>73.00</t>
+          <t>71.39</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G28" t="inlineStr"/>
+        <v>0.03</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04</v>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1352,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>64.62</t>
+          <t>55.66</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1407,14 +1361,14 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.46</v>
+        <v>0.15</v>
       </c>
       <c r="G29" t="n">
-        <v>2.31</v>
+        <v>0.27</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1432,23 +1386,21 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>296.00</t>
+          <t>290.06</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.1</v>
-      </c>
+        <v>2.87</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1418,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>138.94</t>
+          <t>144.20</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1475,12 +1427,12 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1498,23 +1450,21 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>234.88</t>
+          <t>230.10</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1.01</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1532,23 +1482,21 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>343.81</t>
+          <t>319.48</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>11.27</v>
-      </c>
-      <c r="G33" t="n">
-        <v>3.39</v>
-      </c>
+        <v>2.23</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1566,23 +1514,21 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>684.45</t>
+          <t>652.59</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1.82</v>
-      </c>
+        <v>10.51</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1600,23 +1546,21 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>323.91</t>
+          <t>305.84</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1.99</v>
-      </c>
+        <v>7.1</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1634,23 +1578,21 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>125.82</t>
+          <t>123.33</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="G36" t="n">
-        <v>2.09</v>
-      </c>
+        <v>0.55</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1668,23 +1610,15 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>33.90</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1.95</v>
-      </c>
+          <t>32.51</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1702,23 +1636,21 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>125.82</t>
+          <t>123.97</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.92</v>
-      </c>
+        <v>1.01</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1736,23 +1668,21 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>163.25</t>
+          <t>153.57</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1.56</v>
-      </c>
+        <v>1.1</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1770,23 +1700,21 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>170.98</t>
+          <t>170.94</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.64</v>
-      </c>
+        <v>0.53</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1804,23 +1732,21 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>122.83</t>
+          <t>121.94</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.3</v>
-      </c>
+        <v>0.25</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1838,23 +1764,21 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>97.18</t>
+          <t>94.76</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1.56</v>
-      </c>
+        <v>0.24</v>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1872,23 +1796,21 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>350.38</t>
+          <t>346.07</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.41</v>
-      </c>
+        <v>1.53</v>
+      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1828,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>157.77</t>
+          <t>170.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1915,12 +1837,12 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.63</v>
+        <v>2.54</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1860,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>116.98</t>
+          <t>115.34</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1947,14 +1869,14 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.23</v>
+        <v>0.09</v>
       </c>
       <c r="G45" t="n">
-        <v>1.06</v>
+        <v>0.08</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -1972,23 +1894,21 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1,527.82</t>
+          <t>1,499.65</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>13.02</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.86</v>
-      </c>
+        <v>8.23</v>
+      </c>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2006,23 +1926,21 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>283.34</t>
+          <t>278.53</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1.85</v>
-      </c>
+        <v>1.92</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2040,23 +1958,21 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>108.70</t>
+          <t>105.43</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="G48" t="n">
-        <v>2.06</v>
-      </c>
+        <v>1.07</v>
+      </c>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2074,23 +1990,21 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>357.01</t>
+          <t>358.50</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1.68</v>
-      </c>
+        <v>1.08</v>
+      </c>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2108,23 +2022,21 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>27,186.81</t>
+          <t>25,464.21</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>786.75</v>
-      </c>
-      <c r="G50" t="n">
-        <v>2.98</v>
-      </c>
+        <v>618.75</v>
+      </c>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2142,21 +2054,23 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4,646.48</t>
+          <t>4,794.22</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>70.28</v>
-      </c>
-      <c r="G51" t="inlineStr"/>
+        <v>56.2</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.19</v>
+      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2174,23 +2088,21 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>25,755.01</t>
+          <t>23,382.81</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>904.97</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3.64</v>
-      </c>
+        <v>765.49</v>
+      </c>
+      <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2208,21 +2120,23 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4,195.48</t>
+          <t>4,394.75</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>77.81</v>
-      </c>
-      <c r="G53" t="inlineStr"/>
+        <v>68.56999999999999</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.59</v>
+      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>111年12月14日 價格指數(臺灣證券交易所)</t>
+          <t>111年12月23日 價格指數(臺灣證券交易所)</t>
         </is>
       </c>
     </row>
@@ -2240,20 +2154,18 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4,446.15</t>
+          <t>4,338.04</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.15</v>
-      </c>
+        <v>30.87</v>
+      </c>
+      <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2274,20 +2186,18 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>6,848.84</t>
+          <t>6,648.62</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>128.39</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1.91</v>
-      </c>
+        <v>42.73</v>
+      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2308,20 +2218,18 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>4,734.34</t>
+          <t>4,562.55</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>105.73</v>
-      </c>
-      <c r="G56" t="n">
-        <v>2.28</v>
-      </c>
+        <v>24.84</v>
+      </c>
+      <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2342,7 +2250,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3,428.35</t>
+          <t>3,476.12</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2351,7 +2259,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1.1</v>
+        <v>5.96</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
@@ -2374,20 +2282,18 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>7,401.03</t>
+          <t>7,003.68</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>122.36</v>
-      </c>
-      <c r="G58" t="n">
-        <v>1.68</v>
-      </c>
+        <v>85.48999999999999</v>
+      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2408,20 +2314,18 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>7,958.84</t>
+          <t>7,900.56</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>83.09999999999999</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1.06</v>
-      </c>
+        <v>18.56</v>
+      </c>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2442,20 +2346,18 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5,692.85</t>
+          <t>5,491.00</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>101.28</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1.81</v>
-      </c>
+        <v>34.02</v>
+      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2476,20 +2378,18 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>5,546.47</t>
+          <t>5,281.79</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>98.73</v>
-      </c>
-      <c r="G61" t="n">
-        <v>1.81</v>
-      </c>
+        <v>65.42</v>
+      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2510,20 +2410,18 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>4,998.67</t>
+          <t>4,830.24</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>76.56</v>
-      </c>
-      <c r="G62" t="n">
-        <v>1.56</v>
-      </c>
+        <v>60.65</v>
+      </c>
+      <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2544,20 +2442,18 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>4,681.90</t>
+          <t>4,396.53</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>102.27</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2.23</v>
-      </c>
+        <v>58.93</v>
+      </c>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2578,20 +2474,18 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>4,110.81</t>
+          <t>3,909.33</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>70.36</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1.74</v>
-      </c>
+        <v>51.9</v>
+      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2612,20 +2506,18 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3,871.20</t>
+          <t>3,617.27</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>88.97</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2.35</v>
-      </c>
+        <v>19.34</v>
+      </c>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2646,20 +2538,18 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>4,467.67</t>
+          <t>4,227.59</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>107.51</v>
-      </c>
-      <c r="G66" t="n">
-        <v>2.47</v>
-      </c>
+        <v>54.08</v>
+      </c>
+      <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2680,20 +2570,18 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>4,321.34</t>
+          <t>4,190.71</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>68.06</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1.6</v>
-      </c>
+        <v>32.69</v>
+      </c>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2714,20 +2602,18 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>4,155.12</t>
+          <t>3,960.31</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>77.13</v>
-      </c>
-      <c r="G68" t="n">
-        <v>1.89</v>
-      </c>
+        <v>56.46</v>
+      </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2748,20 +2634,18 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>3,711.45</t>
+          <t>3,482.49</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>85.40000000000001</v>
-      </c>
-      <c r="G69" t="n">
-        <v>2.36</v>
-      </c>
+        <v>46.55</v>
+      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2782,20 +2666,18 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>3,766.14</t>
+          <t>3,717.23</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>45.57</v>
-      </c>
-      <c r="G70" t="n">
-        <v>1.22</v>
-      </c>
+        <v>42.81</v>
+      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2816,20 +2698,18 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4,433.36</t>
+          <t>4,314.85</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>56.18</v>
-      </c>
-      <c r="G71" t="n">
-        <v>1.28</v>
-      </c>
+        <v>49.81</v>
+      </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2850,20 +2730,18 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>4,165.25</t>
+          <t>4,044.68</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>52.15</v>
-      </c>
-      <c r="G72" t="n">
-        <v>1.27</v>
-      </c>
+        <v>59.9</v>
+      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2884,7 +2762,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2,769.70</t>
+          <t>2,571.35</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2893,10 +2771,10 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>106.37</v>
+        <v>3.17</v>
       </c>
       <c r="G73" t="n">
-        <v>3.99</v>
+        <v>0.12</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2918,7 +2796,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4,016.38</t>
+          <t>4,035.23</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2927,10 +2805,10 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>35.97</v>
+        <v>3.62</v>
       </c>
       <c r="G74" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -2952,20 +2830,18 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>3,863.17</t>
+          <t>3,744.06</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>52.63</v>
-      </c>
-      <c r="G75" t="n">
-        <v>1.38</v>
-      </c>
+        <v>50.8</v>
+      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -2986,20 +2862,18 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>3,649.42</t>
+          <t>3,652.32</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>45.01</v>
-      </c>
-      <c r="G76" t="n">
-        <v>1.25</v>
-      </c>
+        <v>7.58</v>
+      </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3020,20 +2894,18 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>3,281.54</t>
+          <t>3,079.45</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>101.23</v>
-      </c>
-      <c r="G77" t="n">
-        <v>3.18</v>
-      </c>
+        <v>2.93</v>
+      </c>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3054,20 +2926,18 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>4,743.12</t>
+          <t>4,692.77</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>52.08</v>
-      </c>
-      <c r="G78" t="n">
-        <v>1.11</v>
-      </c>
+        <v>21.57</v>
+      </c>
+      <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3088,20 +2958,18 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>3,816.82</t>
+          <t>3,794.31</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>64.33</v>
-      </c>
-      <c r="G79" t="n">
-        <v>1.71</v>
-      </c>
+        <v>22.57</v>
+      </c>
+      <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3122,20 +2990,18 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>3,700.26</t>
+          <t>3,599.01</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>62.34</v>
-      </c>
-      <c r="G80" t="n">
-        <v>1.71</v>
-      </c>
+        <v>43.73</v>
+      </c>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3156,20 +3022,18 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>3,785.29</t>
+          <t>3,490.18</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>52.22</v>
-      </c>
-      <c r="G81" t="n">
-        <v>1.4</v>
-      </c>
+        <v>7.2</v>
+      </c>
+      <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3190,20 +3054,18 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>4,267.90</t>
+          <t>4,018.10</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>85.08</v>
-      </c>
-      <c r="G82" t="n">
-        <v>2.03</v>
-      </c>
+        <v>67.48</v>
+      </c>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3224,20 +3086,18 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>3,703.32</t>
+          <t>3,698.45</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>38.24</v>
-      </c>
-      <c r="G83" t="n">
-        <v>1.04</v>
-      </c>
+        <v>32.39</v>
+      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3258,20 +3118,18 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4,715.50</t>
+          <t>4,722.88</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>28.93</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.62</v>
-      </c>
+        <v>17.77</v>
+      </c>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3292,20 +3150,18 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>4,379.21</t>
+          <t>4,373.24</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>54.54</v>
-      </c>
-      <c r="G85" t="n">
-        <v>1.26</v>
-      </c>
+        <v>18.07</v>
+      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3326,20 +3182,18 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5,258.13</t>
+          <t>5,135.49</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>76.64</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1.48</v>
-      </c>
+        <v>86.22</v>
+      </c>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
           <t>價格指數(跨市場)</t>
@@ -3360,20 +3214,18 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>25,787.87</t>
+          <t>24,836.22</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>435.81</v>
-      </c>
-      <c r="G87" t="n">
-        <v>1.72</v>
-      </c>
+        <v>274.1</v>
+      </c>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3394,18 +3246,20 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>4,996.44</t>
+          <t>5,088.37</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>43.32</v>
-      </c>
-      <c r="G88" t="inlineStr"/>
+        <v>27.62</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.55</v>
+      </c>
       <c r="H88" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3426,20 +3280,18 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>7,718.89</t>
+          <t>7,551.38</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>98.14</v>
-      </c>
-      <c r="G89" t="n">
-        <v>1.29</v>
-      </c>
+        <v>64.56999999999999</v>
+      </c>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3460,20 +3312,18 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>7,195.43</t>
+          <t>6,916.22</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>111.99</v>
-      </c>
-      <c r="G90" t="n">
-        <v>1.58</v>
-      </c>
+        <v>76.04000000000001</v>
+      </c>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3494,20 +3344,18 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>7,706.82</t>
+          <t>7,339.37</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>158.2</v>
-      </c>
-      <c r="G91" t="n">
-        <v>2.1</v>
-      </c>
+        <v>78.09999999999999</v>
+      </c>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3528,20 +3376,18 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>7,589.41</t>
+          <t>7,190.10</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>185.74</v>
-      </c>
-      <c r="G92" t="n">
-        <v>2.51</v>
-      </c>
+        <v>85.87</v>
+      </c>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3562,20 +3408,18 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>6,340.89</t>
+          <t>6,302.20</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>63.82</v>
-      </c>
-      <c r="G93" t="n">
-        <v>1.02</v>
-      </c>
+        <v>31.72</v>
+      </c>
+      <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3596,20 +3440,18 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>14,676.63</t>
+          <t>13,893.10</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>370.95</v>
-      </c>
-      <c r="G94" t="n">
-        <v>2.59</v>
-      </c>
+        <v>12.46</v>
+      </c>
+      <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3630,20 +3472,18 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>6,574.44</t>
+          <t>6,500.66</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>61.23</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0.9399999999999999</v>
-      </c>
+        <v>2.03</v>
+      </c>
+      <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3664,20 +3504,18 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>7,508.60</t>
+          <t>7,275.78</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>106.92</v>
-      </c>
-      <c r="G96" t="n">
-        <v>1.44</v>
-      </c>
+        <v>100.81</v>
+      </c>
+      <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3698,20 +3536,18 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>5,755.48</t>
+          <t>5,654.07</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>63.88</v>
-      </c>
-      <c r="G97" t="n">
-        <v>1.12</v>
-      </c>
+        <v>23.2</v>
+      </c>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3732,20 +3568,18 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>5,612.76</t>
+          <t>5,474.89</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>95.54000000000001</v>
-      </c>
-      <c r="G98" t="n">
-        <v>1.73</v>
-      </c>
+        <v>19.53</v>
+      </c>
+      <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3766,20 +3600,18 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>6,581.94</t>
+          <t>6,542.32</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>90.22</v>
-      </c>
-      <c r="G99" t="n">
-        <v>1.39</v>
-      </c>
+        <v>31.84</v>
+      </c>
+      <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3800,20 +3632,18 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>6,669.97</t>
+          <t>6,372.40</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>113.01</v>
-      </c>
-      <c r="G100" t="n">
-        <v>1.72</v>
-      </c>
+        <v>71.09</v>
+      </c>
+      <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3834,20 +3664,18 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>8,331.79</t>
+          <t>8,115.38</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>128.7</v>
-      </c>
-      <c r="G101" t="n">
-        <v>1.57</v>
-      </c>
+        <v>41.69</v>
+      </c>
+      <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3868,20 +3696,18 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>5,673.59</t>
+          <t>5,605.54</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>23.82</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0.42</v>
-      </c>
+        <v>18.47</v>
+      </c>
+      <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3902,20 +3728,18 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>7,599.78</t>
+          <t>7,363.53</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>111.53</v>
-      </c>
-      <c r="G103" t="n">
-        <v>1.49</v>
-      </c>
+        <v>85.95999999999999</v>
+      </c>
+      <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3936,20 +3760,18 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>7,101.08</t>
+          <t>6,978.82</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>85.52</v>
-      </c>
-      <c r="G104" t="n">
-        <v>1.22</v>
-      </c>
+        <v>34.25</v>
+      </c>
+      <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -3970,20 +3792,18 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>6,191.12</t>
+          <t>6,152.00</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>54.2</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0.88</v>
-      </c>
+        <v>19.15</v>
+      </c>
+      <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4004,20 +3824,18 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>5,890.21</t>
+          <t>5,636.86</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>112.65</v>
-      </c>
-      <c r="G106" t="n">
-        <v>1.95</v>
-      </c>
+        <v>72.79000000000001</v>
+      </c>
+      <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4038,20 +3856,18 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>4,733.35</t>
+          <t>4,668.31</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>50.31</v>
-      </c>
-      <c r="G107" t="n">
-        <v>1.07</v>
-      </c>
+        <v>58.98</v>
+      </c>
+      <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4072,20 +3888,18 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>7,736.78</t>
+          <t>7,485.34</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>100.46</v>
-      </c>
-      <c r="G108" t="n">
-        <v>1.32</v>
-      </c>
+        <v>98.64</v>
+      </c>
+      <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4106,20 +3920,18 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>6,165.34</t>
+          <t>6,149.09</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>88.84999999999999</v>
-      </c>
-      <c r="G109" t="n">
-        <v>1.46</v>
-      </c>
+        <v>33.03</v>
+      </c>
+      <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4140,20 +3952,18 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>5,587.24</t>
+          <t>5,287.14</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>157.86</v>
-      </c>
-      <c r="G110" t="n">
-        <v>2.91</v>
-      </c>
+        <v>42.76</v>
+      </c>
+      <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4174,20 +3984,18 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>6,622.47</t>
+          <t>6,386.65</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>75.42</v>
-      </c>
-      <c r="G111" t="n">
-        <v>1.15</v>
-      </c>
+        <v>58.98</v>
+      </c>
+      <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4208,20 +4016,18 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>5,491.83</t>
+          <t>5,305.19</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>81.98999999999999</v>
-      </c>
-      <c r="G112" t="n">
-        <v>1.52</v>
-      </c>
+        <v>64.91</v>
+      </c>
+      <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4242,20 +4048,18 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>3,959.29</t>
+          <t>3,821.41</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="G113" t="n">
-        <v>1.32</v>
-      </c>
+        <v>29.63</v>
+      </c>
+      <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4276,20 +4080,18 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>3,969.44</t>
+          <t>3,758.07</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>139.17</v>
-      </c>
-      <c r="G114" t="n">
-        <v>3.63</v>
-      </c>
+        <v>36.97</v>
+      </c>
+      <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4310,20 +4112,18 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>4,064.49</t>
+          <t>3,796.93</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>148.08</v>
-      </c>
-      <c r="G115" t="n">
-        <v>3.78</v>
-      </c>
+        <v>35.58</v>
+      </c>
+      <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4344,20 +4144,18 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>4,411.48</t>
+          <t>4,300.10</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>68.43000000000001</v>
-      </c>
-      <c r="G116" t="n">
-        <v>1.58</v>
-      </c>
+        <v>37.17</v>
+      </c>
+      <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4378,20 +4176,18 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>4,661.06</t>
+          <t>4,648.81</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>53.99</v>
-      </c>
-      <c r="G117" t="n">
-        <v>1.17</v>
-      </c>
+        <v>29.47</v>
+      </c>
+      <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4412,20 +4208,18 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>5,618.24</t>
+          <t>5,370.67</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>151.76</v>
-      </c>
-      <c r="G118" t="n">
-        <v>2.78</v>
-      </c>
+        <v>75.81999999999999</v>
+      </c>
+      <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4446,20 +4240,18 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>4,934.88</t>
+          <t>4,819.15</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>40.13</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.82</v>
-      </c>
+        <v>34.17</v>
+      </c>
+      <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
@@ -4480,20 +4272,18 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>5,105.21</t>
+          <t>4,874.37</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>+</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>97.88</v>
-      </c>
-      <c r="G120" t="n">
-        <v>1.95</v>
-      </c>
+        <v>23.29</v>
+      </c>
+      <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
           <t>價格指數(臺灣指數公司)</t>
